--- a/StructureDefinition-profile-TerminologyCapabilities.xlsx
+++ b/StructureDefinition-profile-TerminologyCapabilities.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3500" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3610" uniqueCount="444">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T13:17:30.8113827-06:00</t>
+    <t>2026-02-09T22:05:43.3797379-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -419,38 +419,87 @@
     <t>TerminologyCapabilities.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.extension:versionAlgorithm</t>
+  </si>
+  <si>
+    <t>versionAlgorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TerminologyCapabilities.versionAlgorithm|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for TerminologyCapabilities.versionAlgorithm[x] from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
+  </si>
+  <si>
+    <t>Element `TerminologyCapabilities.versionAlgorithm[x]` is will have a context of TerminologyCapabilities based on following the parent source element upwards and mapping to `TerminologyCapabilities`.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.extension:copyrightLabel</t>
+  </si>
+  <si>
+    <t>copyrightLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TerminologyCapabilities.copyrightLabel|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for TerminologyCapabilities.copyrightLabel from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
+  </si>
+  <si>
+    <t>Element `TerminologyCapabilities.copyrightLabel` is will have a context of TerminologyCapabilities based on following the parent source element upwards and mapping to `TerminologyCapabilities`.</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -819,6 +868,9 @@
     <t>TerminologyCapabilities.software.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
@@ -942,6 +994,25 @@
     <t>TerminologyCapabilities.codeSystem.extension</t>
   </si>
   <si>
+    <t>TerminologyCapabilities.codeSystem.extension:content</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TerminologyCapabilities.codeSystem.content|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for TerminologyCapabilities.codeSystem.content from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The extent of the content of the code system (the concepts and codes it defines) are represented in this resource instance.</t>
+  </si>
+  <si>
+    <t>Element `TerminologyCapabilities.codeSystem.content` is will have a context of TerminologyCapabilities.codeSystem based on following the parent source element upwards and mapping to `TerminologyCapabilities`.</t>
+  </si>
+  <si>
     <t>TerminologyCapabilities.codeSystem.modifierExtension</t>
   </si>
   <si>
@@ -1031,17 +1102,10 @@
     <t>TerminologyCapabilities.codeSystem.version.language.extension</t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>TerminologyCapabilities.codeSystem.version.language.extension:language</t>
+  </si>
+  <si>
+    <t>language</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TerminologyCapabilities.codeSystem.version.language|0.0.1-snapshot-3}
@@ -1051,8 +1115,7 @@
     <t>Cross-version extension for TerminologyCapabilities.codeSystem.version.language from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
+    <t>Element `TerminologyCapabilities.codeSystem.version.language` is mapped to FHIR R4 element `TerminologyCapabilities.codeSystem.version.language`.</t>
   </si>
   <si>
     <t>TerminologyCapabilities.codeSystem.version.language.value</t>
@@ -1227,6 +1290,12 @@
   </si>
   <si>
     <t>TerminologyCapabilities.codeSearch.extension</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.codeSearch.extension:codeSearch</t>
+  </si>
+  <si>
+    <t>codeSearch</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TerminologyCapabilities.codeSearch|0.0.1-snapshot-3}
@@ -1236,7 +1305,7 @@
     <t>Cross-version extension for TerminologyCapabilities.codeSearch from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>See notes on the [ValueSet](https://hl7.org/fhir/v.html#) resource.</t>
+    <t>Element `TerminologyCapabilities.codeSearch` is mapped to FHIR R4 element `TerminologyCapabilities.codeSearch`.</t>
   </si>
   <si>
     <t>TerminologyCapabilities.codeSearch.value</t>
@@ -1627,7 +1696,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN97"/>
+  <dimension ref="A1:AN100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1636,9 +1705,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="56.2265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="60.6171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="56.2265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="9.984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="14.76953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -2602,7 +2671,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2621,17 +2690,15 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>135</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>77</v>
@@ -2668,16 +2735,14 @@
         <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>136</v>
@@ -2695,7 +2760,7 @@
         <v>137</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>77</v>
@@ -2712,43 +2777,43 @@
         <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O10" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>77</v>
       </c>
@@ -2796,7 +2861,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2805,13 +2870,13 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>77</v>
@@ -2825,12 +2890,14 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="C11" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="D11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2848,23 +2915,21 @@
         <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>100</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="O11" t="s" s="2">
-        <v>147</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>77</v>
       </c>
@@ -2912,28 +2977,28 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>149</v>
+        <v>77</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>77</v>
@@ -2941,44 +3006,46 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O12" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="O12" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="P12" t="s" s="2">
         <v>77</v>
       </c>
@@ -3026,28 +3093,28 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>155</v>
+        <v>77</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>156</v>
+        <v>77</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>77</v>
@@ -3055,10 +3122,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3081,19 +3148,19 @@
         <v>87</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>77</v>
@@ -3142,7 +3209,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
@@ -3151,7 +3218,7 @@
         <v>86</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>162</v>
+        <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>98</v>
@@ -3160,10 +3227,10 @@
         <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>77</v>
+        <v>163</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>77</v>
+        <v>164</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>77</v>
@@ -3171,10 +3238,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3197,16 +3264,16 @@
         <v>87</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3256,7 +3323,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3274,10 +3341,10 @@
         <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>77</v>
+        <v>171</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>77</v>
@@ -3285,10 +3352,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3296,7 +3363,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>86</v>
@@ -3305,24 +3372,26 @@
         <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="O15" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
       </c>
@@ -3346,40 +3415,40 @@
         <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="Y15" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>168</v>
-      </c>
       <c r="AG15" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>77</v>
+        <v>177</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>98</v>
@@ -3388,10 +3457,10 @@
         <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>175</v>
+        <v>77</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>77</v>
@@ -3399,10 +3468,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3425,7 +3494,7 @@
         <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>179</v>
@@ -3436,9 +3505,7 @@
       <c r="N16" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="O16" t="s" s="2">
-        <v>182</v>
-      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3486,7 +3553,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3504,10 +3571,10 @@
         <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>184</v>
+        <v>77</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>77</v>
@@ -3515,14 +3582,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>186</v>
+        <v>77</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3535,22 +3602,22 @@
         <v>77</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>187</v>
+        <v>106</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3576,13 +3643,13 @@
         <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>77</v>
+        <v>189</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>77</v>
@@ -3600,7 +3667,7 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>86</v>
@@ -3618,10 +3685,10 @@
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -3629,10 +3696,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3655,7 +3722,7 @@
         <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>194</v>
@@ -3716,7 +3783,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
@@ -3752,14 +3819,14 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>77</v>
@@ -3771,16 +3838,16 @@
         <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3833,10 +3900,10 @@
         <v>200</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>77</v>
@@ -3848,10 +3915,10 @@
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>77</v>
+        <v>207</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -3859,10 +3926,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3882,21 +3949,23 @@
         <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="O20" s="2"/>
+        <v>211</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
       </c>
@@ -3944,7 +4013,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
@@ -3962,10 +4031,10 @@
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>77</v>
+        <v>214</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -3973,10 +4042,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3999,20 +4068,18 @@
         <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>77</v>
       </c>
@@ -4060,7 +4127,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4078,7 +4145,7 @@
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -4089,10 +4156,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4103,7 +4170,7 @@
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
@@ -4112,19 +4179,19 @@
         <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4150,13 +4217,13 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>224</v>
+        <v>77</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>77</v>
@@ -4174,13 +4241,13 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>77</v>
@@ -4192,7 +4259,7 @@
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -4203,10 +4270,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4217,7 +4284,7 @@
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>77</v>
@@ -4226,10 +4293,10 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="L23" t="s" s="2">
         <v>229</v>
@@ -4240,7 +4307,9 @@
       <c r="N23" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="O23" s="2"/>
+      <c r="O23" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4288,13 +4357,13 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>77</v>
@@ -4306,32 +4375,32 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>234</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>236</v>
+        <v>77</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>77</v>
@@ -4343,18 +4412,18 @@
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>207</v>
+        <v>235</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>239</v>
-      </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4378,13 +4447,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>77</v>
+        <v>239</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>77</v>
+        <v>240</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -4402,13 +4471,13 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>77</v>
@@ -4420,21 +4489,21 @@
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>234</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4442,7 +4511,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>86</v>
@@ -4454,21 +4523,21 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>106</v>
+        <v>222</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4492,13 +4561,13 @@
         <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>245</v>
+        <v>77</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>246</v>
+        <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>77</v>
@@ -4516,16 +4585,16 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>247</v>
+        <v>77</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>98</v>
@@ -4534,25 +4603,25 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>77</v>
+        <v>247</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>77</v>
+        <v>248</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>77</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4571,16 +4640,18 @@
         <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+      <c r="O26" t="s" s="2">
+        <v>254</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4628,7 +4699,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4637,7 +4708,7 @@
         <v>86</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>252</v>
+        <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>98</v>
@@ -4646,21 +4717,21 @@
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>77</v>
+        <v>255</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>77</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4668,7 +4739,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>86</v>
@@ -4680,19 +4751,21 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+      <c r="O27" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>77</v>
       </c>
@@ -4716,13 +4789,13 @@
         <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>77</v>
@@ -4743,19 +4816,19 @@
         <v>256</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>77</v>
+        <v>262</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -4769,21 +4842,21 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
@@ -4792,20 +4865,18 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>132</v>
+        <v>264</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>133</v>
+        <v>265</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>77</v>
@@ -4854,22 +4925,22 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>77</v>
+        <v>267</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -4883,46 +4954,42 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>261</v>
+        <v>77</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>77</v>
       </c>
@@ -4970,22 +5037,22 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
@@ -4999,21 +5066,21 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>77</v>
@@ -5022,18 +5089,20 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -5082,22 +5151,22 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
@@ -5111,44 +5180,46 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="O31" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="O31" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="P31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5196,22 +5267,22 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
@@ -5225,10 +5296,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5236,7 +5307,7 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>86</v>
@@ -5251,13 +5322,13 @@
         <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>249</v>
+        <v>166</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5308,16 +5379,16 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>275</v>
+        <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>98</v>
@@ -5337,10 +5408,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5360,18 +5431,20 @@
         <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N33" s="2"/>
+        <v>286</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>287</v>
+      </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5420,7 +5493,7 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5432,10 +5505,10 @@
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
@@ -5449,21 +5522,21 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>277</v>
+        <v>288</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
@@ -5472,20 +5545,18 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>132</v>
+        <v>264</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>133</v>
+        <v>289</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5534,22 +5605,22 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>77</v>
+        <v>291</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
@@ -5563,46 +5634,42 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>261</v>
+        <v>77</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5650,22 +5717,22 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>77</v>
@@ -5679,21 +5746,21 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -5702,18 +5769,20 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -5762,22 +5831,22 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -5791,42 +5860,46 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J37" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>283</v>
+        <v>131</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>77</v>
       </c>
@@ -5874,22 +5947,22 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -5903,10 +5976,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5914,7 +5987,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>86</v>
@@ -5929,13 +6002,13 @@
         <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5986,10 +6059,10 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>86</v>
@@ -6015,21 +6088,21 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>290</v>
+        <v>77</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
@@ -6038,20 +6111,18 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>249</v>
+        <v>299</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>293</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
@@ -6100,19 +6171,19 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>294</v>
+        <v>98</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>77</v>
@@ -6129,10 +6200,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6152,16 +6223,16 @@
         <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>254</v>
+        <v>303</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>255</v>
+        <v>304</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6212,7 +6283,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>256</v>
+        <v>302</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6224,10 +6295,10 @@
         <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6241,14 +6312,14 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>131</v>
+        <v>306</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -6267,16 +6338,16 @@
         <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>132</v>
+        <v>264</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>133</v>
+        <v>307</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>258</v>
+        <v>308</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>135</v>
+        <v>309</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6326,7 +6397,7 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>259</v>
+        <v>305</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6338,10 +6409,10 @@
         <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>137</v>
+        <v>310</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>77</v>
@@ -6355,46 +6426,42 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>261</v>
+        <v>77</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>77</v>
       </c>
@@ -6442,22 +6509,22 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6471,10 +6538,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6482,10 +6549,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
@@ -6497,13 +6564,13 @@
         <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>299</v>
+        <v>131</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>300</v>
+        <v>132</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>301</v>
+        <v>133</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6542,31 +6609,29 @@
         <v>77</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC43" s="2"/>
       <c r="AD43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>77</v>
@@ -6583,21 +6648,23 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="D44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>77</v>
@@ -6609,16 +6676,16 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>249</v>
+        <v>315</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6668,7 +6735,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6677,10 +6744,10 @@
         <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>77</v>
@@ -6697,42 +6764,46 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
       </c>
@@ -6780,22 +6851,22 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -6809,21 +6880,21 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>77</v>
@@ -6835,17 +6906,15 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>132</v>
+        <v>321</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>133</v>
+        <v>322</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -6894,22 +6963,22 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>259</v>
+        <v>320</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -6923,14 +6992,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>261</v>
+        <v>77</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -6943,26 +7012,24 @@
         <v>77</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>132</v>
+        <v>264</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>262</v>
+        <v>325</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>263</v>
+        <v>326</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7010,7 +7077,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>264</v>
+        <v>324</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7022,10 +7089,10 @@
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7039,10 +7106,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7062,16 +7129,16 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>310</v>
+        <v>269</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>311</v>
+        <v>270</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7122,7 +7189,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>309</v>
+        <v>271</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7131,13 +7198,13 @@
         <v>86</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>312</v>
+        <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7151,21 +7218,21 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
@@ -7174,18 +7241,20 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7234,22 +7303,22 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>313</v>
+        <v>275</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7263,42 +7332,46 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>77</v>
       </c>
@@ -7346,22 +7419,22 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>316</v>
+        <v>280</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7375,10 +7448,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7389,7 +7462,7 @@
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>77</v>
@@ -7398,16 +7471,16 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7458,16 +7531,16 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>77</v>
+        <v>334</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>98</v>
@@ -7487,10 +7560,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>322</v>
+        <v>335</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7510,16 +7583,16 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>323</v>
+        <v>336</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>324</v>
+        <v>337</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -7570,7 +7643,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>256</v>
+        <v>335</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7582,7 +7655,7 @@
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>77</v>
@@ -7599,10 +7672,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7610,10 +7683,10 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>77</v>
@@ -7625,13 +7698,13 @@
         <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>132</v>
+        <v>193</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7670,29 +7743,31 @@
         <v>77</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AC53" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>329</v>
+        <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>259</v>
+        <v>338</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>77</v>
@@ -7709,10 +7784,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>325</v>
+        <v>341</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7735,13 +7810,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>330</v>
+        <v>106</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7792,7 +7867,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>259</v>
+        <v>341</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -7801,10 +7876,10 @@
         <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>332</v>
+        <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>77</v>
@@ -7821,10 +7896,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>333</v>
+        <v>344</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7847,13 +7922,13 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7904,7 +7979,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>335</v>
+        <v>271</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -7933,10 +8008,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>336</v>
+        <v>347</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7959,13 +8034,13 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>249</v>
+        <v>131</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>337</v>
+        <v>132</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>338</v>
+        <v>133</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8004,19 +8079,17 @@
         <v>77</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC56" s="2"/>
       <c r="AD56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>336</v>
+        <v>275</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8028,7 +8101,7 @@
         <v>77</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>77</v>
@@ -8045,12 +8118,14 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>347</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>349</v>
+      </c>
       <c r="D57" t="s" s="2">
         <v>77</v>
       </c>
@@ -8059,7 +8134,7 @@
         <v>78</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>77</v>
@@ -8071,15 +8146,17 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>151</v>
+        <v>350</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>254</v>
+        <v>351</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>77</v>
@@ -8128,22 +8205,22 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8157,21 +8234,21 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>340</v>
+        <v>353</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>77</v>
@@ -8183,17 +8260,15 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>133</v>
+        <v>354</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -8242,22 +8317,22 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>259</v>
+        <v>355</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8271,14 +8346,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>261</v>
+        <v>77</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8291,26 +8366,22 @@
         <v>77</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>132</v>
+        <v>264</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>262</v>
+        <v>357</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>77</v>
       </c>
@@ -8358,7 +8429,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>264</v>
+        <v>356</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8370,10 +8441,10 @@
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8387,10 +8458,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8398,7 +8469,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>86</v>
@@ -8413,13 +8484,13 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>343</v>
+        <v>269</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>344</v>
+        <v>270</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8470,10 +8541,10 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>342</v>
+        <v>271</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>86</v>
@@ -8482,10 +8553,10 @@
         <v>77</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -8499,18 +8570,18 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>79</v>
@@ -8525,15 +8596,17 @@
         <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>346</v>
+        <v>273</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>77</v>
@@ -8582,10 +8655,10 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>345</v>
+        <v>275</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>79</v>
@@ -8594,10 +8667,10 @@
         <v>77</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -8611,14 +8684,14 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -8631,22 +8704,26 @@
         <v>77</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>349</v>
+        <v>278</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>77</v>
       </c>
@@ -8694,7 +8771,7 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>348</v>
+        <v>280</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8706,10 +8783,10 @@
         <v>77</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
@@ -8723,10 +8800,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8734,7 +8811,7 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>86</v>
@@ -8749,13 +8826,13 @@
         <v>77</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>178</v>
+        <v>106</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>352</v>
+        <v>363</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>353</v>
+        <v>364</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8806,10 +8883,10 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>351</v>
+        <v>362</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>86</v>
@@ -8835,10 +8912,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8846,10 +8923,10 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>77</v>
@@ -8861,13 +8938,13 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>249</v>
+        <v>106</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>355</v>
+        <v>366</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>356</v>
+        <v>367</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8918,13 +8995,13 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>77</v>
@@ -8947,10 +9024,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8961,7 +9038,7 @@
         <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>77</v>
@@ -8973,13 +9050,13 @@
         <v>77</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>254</v>
+        <v>369</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>255</v>
+        <v>370</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9030,22 +9107,22 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>256</v>
+        <v>368</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
@@ -9059,21 +9136,21 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>77</v>
@@ -9085,17 +9162,15 @@
         <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>132</v>
+        <v>193</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>133</v>
+        <v>372</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>77</v>
@@ -9144,22 +9219,22 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>259</v>
+        <v>371</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
@@ -9173,46 +9248,42 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>261</v>
+        <v>77</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>132</v>
+        <v>264</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>262</v>
+        <v>375</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>77</v>
       </c>
@@ -9260,22 +9331,22 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>264</v>
+        <v>374</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -9289,10 +9360,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9315,13 +9386,13 @@
         <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>361</v>
+        <v>269</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>362</v>
+        <v>270</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9372,7 +9443,7 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>360</v>
+        <v>271</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9384,10 +9455,10 @@
         <v>77</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -9401,21 +9472,21 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>77</v>
@@ -9427,15 +9498,17 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>364</v>
+        <v>273</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>77</v>
@@ -9484,22 +9557,22 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>363</v>
+        <v>275</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
@@ -9513,42 +9586,46 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>367</v>
+        <v>278</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
       </c>
@@ -9596,22 +9673,22 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>366</v>
+        <v>280</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -9625,10 +9702,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9639,7 +9716,7 @@
         <v>78</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>77</v>
@@ -9651,13 +9728,13 @@
         <v>77</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>249</v>
+        <v>193</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9708,13 +9785,13 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>77</v>
@@ -9737,10 +9814,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9763,13 +9840,13 @@
         <v>77</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>254</v>
+        <v>384</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>255</v>
+        <v>385</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9820,7 +9897,7 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>256</v>
+        <v>383</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -9832,10 +9909,10 @@
         <v>77</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
@@ -9849,21 +9926,21 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>77</v>
@@ -9875,17 +9952,15 @@
         <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>132</v>
+        <v>193</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>133</v>
+        <v>387</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>77</v>
@@ -9934,22 +10009,22 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>259</v>
+        <v>386</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
@@ -9963,14 +10038,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>261</v>
+        <v>77</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -9983,26 +10058,22 @@
         <v>77</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>132</v>
+        <v>264</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>262</v>
+        <v>389</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O74" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>77</v>
       </c>
@@ -10050,7 +10121,7 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>264</v>
+        <v>388</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -10062,10 +10133,10 @@
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
@@ -10079,10 +10150,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10090,7 +10161,7 @@
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>86</v>
@@ -10105,13 +10176,13 @@
         <v>77</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>375</v>
+        <v>269</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>376</v>
+        <v>270</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10162,10 +10233,10 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>374</v>
+        <v>271</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>86</v>
@@ -10174,10 +10245,10 @@
         <v>77</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
@@ -10191,21 +10262,21 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>77</v>
@@ -10217,15 +10288,17 @@
         <v>77</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>378</v>
+        <v>273</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>77</v>
@@ -10274,22 +10347,22 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>377</v>
+        <v>275</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
@@ -10303,44 +10376,46 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>207</v>
+        <v>131</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>381</v>
+        <v>278</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>382</v>
+        <v>279</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="O77" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>77</v>
       </c>
@@ -10388,22 +10463,22 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>380</v>
+        <v>280</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
@@ -10417,10 +10492,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10428,7 +10503,7 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>86</v>
@@ -10446,14 +10521,12 @@
         <v>106</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>77</v>
@@ -10478,13 +10551,13 @@
         <v>77</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>172</v>
+        <v>77</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>386</v>
+        <v>77</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>388</v>
+        <v>77</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>77</v>
@@ -10502,10 +10575,10 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>86</v>
@@ -10531,10 +10604,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10557,13 +10630,13 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>323</v>
+        <v>398</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>324</v>
+        <v>399</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10614,7 +10687,7 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>256</v>
+        <v>397</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -10626,7 +10699,7 @@
         <v>77</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>77</v>
@@ -10643,10 +10716,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10654,10 +10727,10 @@
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>77</v>
@@ -10669,15 +10742,17 @@
         <v>77</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>132</v>
+        <v>222</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>326</v>
+        <v>401</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>402</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>403</v>
+      </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>77</v>
@@ -10714,29 +10789,31 @@
         <v>77</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="AC80" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>329</v>
+        <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>259</v>
+        <v>400</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>77</v>
@@ -10753,10 +10830,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10779,16 +10856,16 @@
         <v>77</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>391</v>
+        <v>106</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>386</v>
+        <v>406</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -10814,13 +10891,13 @@
         <v>77</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>77</v>
+        <v>406</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>77</v>
+        <v>408</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>77</v>
@@ -10838,19 +10915,19 @@
         <v>77</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>259</v>
+        <v>404</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>332</v>
+        <v>77</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>77</v>
@@ -10867,10 +10944,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10893,13 +10970,13 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>334</v>
+        <v>345</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -10950,7 +11027,7 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>335</v>
+        <v>271</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
@@ -10979,10 +11056,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -10993,7 +11070,7 @@
         <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>77</v>
@@ -11005,13 +11082,13 @@
         <v>77</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>249</v>
+        <v>131</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>396</v>
+        <v>132</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>397</v>
+        <v>133</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11050,31 +11127,29 @@
         <v>77</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC83" s="2"/>
       <c r="AD83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>395</v>
+        <v>275</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>77</v>
@@ -11091,12 +11166,14 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="C84" s="2"/>
+        <v>410</v>
+      </c>
+      <c r="C84" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="D84" t="s" s="2">
         <v>77</v>
       </c>
@@ -11117,15 +11194,17 @@
         <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>151</v>
+        <v>413</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>254</v>
+        <v>414</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>415</v>
+      </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>77</v>
@@ -11174,22 +11253,22 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>256</v>
+        <v>275</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>77</v>
@@ -11203,21 +11282,21 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>77</v>
@@ -11229,17 +11308,15 @@
         <v>77</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>133</v>
+        <v>354</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>77</v>
@@ -11288,22 +11365,22 @@
         <v>77</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>259</v>
+        <v>355</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
@@ -11317,46 +11394,42 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>261</v>
+        <v>77</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>132</v>
+        <v>264</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>262</v>
+        <v>418</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O86" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>419</v>
+      </c>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>77</v>
       </c>
@@ -11404,22 +11477,22 @@
         <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>264</v>
+        <v>417</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
@@ -11433,10 +11506,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11444,7 +11517,7 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>86</v>
@@ -11459,13 +11532,13 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>402</v>
+        <v>269</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>403</v>
+        <v>270</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11516,10 +11589,10 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>401</v>
+        <v>271</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>86</v>
@@ -11528,10 +11601,10 @@
         <v>77</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
@@ -11545,21 +11618,21 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>77</v>
@@ -11571,15 +11644,17 @@
         <v>77</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>249</v>
+        <v>131</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>405</v>
+        <v>273</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N88" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>77</v>
@@ -11628,22 +11703,22 @@
         <v>77</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>404</v>
+        <v>275</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
@@ -11657,42 +11732,46 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N89" s="2"/>
-      <c r="O89" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="P89" t="s" s="2">
         <v>77</v>
       </c>
@@ -11740,22 +11819,22 @@
         <v>77</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>77</v>
@@ -11769,21 +11848,21 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>408</v>
+        <v>423</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>77</v>
@@ -11795,17 +11874,15 @@
         <v>77</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>132</v>
+        <v>193</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>133</v>
+        <v>424</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>425</v>
+      </c>
+      <c r="N90" s="2"/>
       <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>77</v>
@@ -11854,22 +11931,22 @@
         <v>77</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>259</v>
+        <v>423</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>77</v>
@@ -11883,46 +11960,42 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>409</v>
+        <v>426</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>261</v>
+        <v>77</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>132</v>
+        <v>264</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>262</v>
+        <v>427</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O91" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>77</v>
       </c>
@@ -11970,22 +12043,22 @@
         <v>77</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>264</v>
+        <v>426</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>77</v>
@@ -11999,10 +12072,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>410</v>
+        <v>429</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12010,7 +12083,7 @@
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>86</v>
@@ -12025,13 +12098,13 @@
         <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>411</v>
+        <v>269</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>412</v>
+        <v>270</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -12082,10 +12155,10 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>410</v>
+        <v>271</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>86</v>
@@ -12094,10 +12167,10 @@
         <v>77</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>77</v>
@@ -12111,21 +12184,21 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>413</v>
+        <v>430</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>77</v>
@@ -12137,15 +12210,17 @@
         <v>77</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>249</v>
+        <v>131</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>414</v>
+        <v>273</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>77</v>
@@ -12194,22 +12269,22 @@
         <v>77</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>413</v>
+        <v>275</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>77</v>
@@ -12223,42 +12298,46 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="N94" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O94" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="P94" t="s" s="2">
         <v>77</v>
       </c>
@@ -12306,22 +12385,22 @@
         <v>77</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>77</v>
@@ -12335,21 +12414,21 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>131</v>
+        <v>77</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>77</v>
@@ -12361,17 +12440,15 @@
         <v>77</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>132</v>
+        <v>193</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>133</v>
+        <v>433</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>258</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>135</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>77</v>
@@ -12420,22 +12497,22 @@
         <v>77</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>259</v>
+        <v>432</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>77</v>
@@ -12449,46 +12526,42 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>418</v>
+        <v>435</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>261</v>
+        <v>77</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>132</v>
+        <v>264</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>262</v>
+        <v>436</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>77</v>
       </c>
@@ -12536,22 +12609,22 @@
         <v>77</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>264</v>
+        <v>435</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>77</v>
@@ -12565,10 +12638,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>419</v>
+        <v>438</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12591,13 +12664,13 @@
         <v>77</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>420</v>
+        <v>269</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>421</v>
+        <v>270</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -12648,7 +12721,7 @@
         <v>77</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>419</v>
+        <v>271</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -12660,18 +12733,360 @@
         <v>77</v>
       </c>
       <c r="AJ97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O98" s="2"/>
+      <c r="P98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q98" s="2"/>
+      <c r="R98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="N99" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O99" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="P99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q99" s="2"/>
+      <c r="R99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="N100" s="2"/>
+      <c r="O100" s="2"/>
+      <c r="P100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AK97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM97" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN97" t="s" s="2">
+      <c r="AK100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN100" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-TerminologyCapabilities.xlsx
+++ b/StructureDefinition-profile-TerminologyCapabilities.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3610" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3679" uniqueCount="468">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.3797379-06:00</t>
+    <t>2026-02-17T14:42:26.9348695-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -459,7 +459,7 @@
     <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
   </si>
   <si>
-    <t>Element `TerminologyCapabilities.versionAlgorithm[x]` is will have a context of TerminologyCapabilities based on following the parent source element upwards and mapping to `TerminologyCapabilities`.</t>
+    <t>Element `TerminologyCapabilities.versionAlgorithm[x]` has a context of TerminologyCapabilities based on following the parent source element upwards and mapping to `TerminologyCapabilities`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -482,7 +482,7 @@
     <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
   </si>
   <si>
-    <t>Element `TerminologyCapabilities.copyrightLabel` is will have a context of TerminologyCapabilities based on following the parent source element upwards and mapping to `TerminologyCapabilities`.</t>
+    <t>Element `TerminologyCapabilities.copyrightLabel` has a context of TerminologyCapabilities based on following the parent source element upwards and mapping to `TerminologyCapabilities`.</t>
   </si>
   <si>
     <t>TerminologyCapabilities.modifierExtension</t>
@@ -868,13 +868,23 @@
     <t>TerminologyCapabilities.software.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Element.extension</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.software.extension:software</t>
+  </si>
+  <si>
+    <t>software</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TerminologyCapabilities.software|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for TerminologyCapabilities.software from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `TerminologyCapabilities.software` has is mapped to FHIR R4 element `TerminologyCapabilities.software`, but has no comparisons.</t>
   </si>
   <si>
     <t>TerminologyCapabilities.software.modifierExtension</t>
@@ -934,6 +944,22 @@
     <t>TerminologyCapabilities.implementation.extension</t>
   </si>
   <si>
+    <t>TerminologyCapabilities.implementation.extension:implementation</t>
+  </si>
+  <si>
+    <t>implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TerminologyCapabilities.implementation|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for TerminologyCapabilities.implementation from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `TerminologyCapabilities.implementation` has is mapped to FHIR R4 element `TerminologyCapabilities.implementation`, but has no comparisons.</t>
+  </si>
+  <si>
     <t>TerminologyCapabilities.implementation.modifierExtension</t>
   </si>
   <si>
@@ -994,23 +1020,20 @@
     <t>TerminologyCapabilities.codeSystem.extension</t>
   </si>
   <si>
-    <t>TerminologyCapabilities.codeSystem.extension:content</t>
-  </si>
-  <si>
-    <t>content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TerminologyCapabilities.codeSystem.content|0.0.1-snapshot-3}
+    <t>TerminologyCapabilities.codeSystem.extension:codeSystem</t>
+  </si>
+  <si>
+    <t>codeSystem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TerminologyCapabilities.codeSystem|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for TerminologyCapabilities.codeSystem.content from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>The extent of the content of the code system (the concepts and codes it defines) are represented in this resource instance.</t>
-  </si>
-  <si>
-    <t>Element `TerminologyCapabilities.codeSystem.content` is will have a context of TerminologyCapabilities.codeSystem based on following the parent source element upwards and mapping to `TerminologyCapabilities`.</t>
+    <t>Cross-version extension for TerminologyCapabilities.codeSystem from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `TerminologyCapabilities.codeSystem` has is mapped to FHIR R4 element `TerminologyCapabilities.codeSystem`, but has no comparisons.</t>
   </si>
   <si>
     <t>TerminologyCapabilities.codeSystem.modifierExtension</t>
@@ -1047,6 +1070,12 @@
     <t>TerminologyCapabilities.codeSystem.version.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t>TerminologyCapabilities.codeSystem.version.modifierExtension</t>
   </si>
   <si>
@@ -1090,203 +1119,191 @@
     <t>Language Displays supported.</t>
   </si>
   <si>
-    <t>TerminologyCapabilities.codeSystem.version.language.id</t>
+    <t>TerminologyCapabilities.codeSystem.version.filter</t>
+  </si>
+  <si>
+    <t>Filter Properties supported</t>
+  </si>
+  <si>
+    <t>Filter Properties supported.</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.codeSystem.version.filter.id</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.codeSystem.version.filter.extension</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.codeSystem.version.filter.modifierExtension</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.codeSystem.version.filter.code</t>
+  </si>
+  <si>
+    <t>Code of the property supported</t>
+  </si>
+  <si>
+    <t>Code of the property supported.</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.codeSystem.version.filter.op</t>
+  </si>
+  <si>
+    <t>Operations supported for the property</t>
+  </si>
+  <si>
+    <t>Operations supported for the property.</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.codeSystem.version.property</t>
+  </si>
+  <si>
+    <t>Properties supported for $lookup</t>
+  </si>
+  <si>
+    <t>Properties supported for $lookup.</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.codeSystem.subsumption</t>
+  </si>
+  <si>
+    <t>Whether subsumption is supported</t>
+  </si>
+  <si>
+    <t>True if subsumption is supported for this version of the code system.</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.expansion</t>
+  </si>
+  <si>
+    <t>Information about the [ValueSet/$expand](valueset-operation-expand.html) operation</t>
+  </si>
+  <si>
+    <t>Information about the [ValueSet/$expand](http://hl7.org/fhir/R4/valueset-operation-expand.html) operation.</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.expansion.id</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.expansion.extension</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.expansion.extension:expansion</t>
+  </si>
+  <si>
+    <t>expansion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TerminologyCapabilities.expansion|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for TerminologyCapabilities.expansion from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Information about the [ValueSet/$expand](https://hl7.org/fhir/valueset-operation-expand.html) operation.</t>
+  </si>
+  <si>
+    <t>Element `TerminologyCapabilities.expansion` has is mapped to FHIR R4 element `TerminologyCapabilities.expansion`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.expansion.modifierExtension</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.expansion.hierarchical</t>
+  </si>
+  <si>
+    <t>Whether the server can return nested value sets</t>
+  </si>
+  <si>
+    <t>Whether the server can return nested value sets.</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.expansion.paging</t>
+  </si>
+  <si>
+    <t>Whether the server supports paging on expansion</t>
+  </si>
+  <si>
+    <t>Whether the server supports paging on expansion.</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.expansion.incomplete</t>
+  </si>
+  <si>
+    <t>Allow request for incomplete expansions?</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.expansion.parameter</t>
+  </si>
+  <si>
+    <t>Supported expansion parameter</t>
+  </si>
+  <si>
+    <t>Supported expansion parameter.</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.expansion.parameter.id</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.expansion.parameter.extension</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.expansion.parameter.modifierExtension</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.expansion.parameter.name</t>
+  </si>
+  <si>
+    <t>Expansion Parameter name</t>
+  </si>
+  <si>
+    <t>Expansion Parameter name.</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.expansion.parameter.documentation</t>
+  </si>
+  <si>
+    <t>Description of support for parameter</t>
+  </si>
+  <si>
+    <t>Description of support for parameter.</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.expansion.textFilter</t>
+  </si>
+  <si>
+    <t>Documentation about text searching works</t>
+  </si>
+  <si>
+    <t>Documentation about text searching works.</t>
+  </si>
+  <si>
+    <t>This documentation should cover things like case sensitivity,  use of punctuation if not ignored, what wild cards are supported (if any), whether text is starts with or contains, and whether word order matters.</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.codeSearch</t>
+  </si>
+  <si>
+    <t>explicit | all</t>
+  </si>
+  <si>
+    <t>The degree to which the server supports the code search parameter on ValueSet, if it is supported.</t>
+  </si>
+  <si>
+    <t>See notes on the [ValueSet](http://hl7.org/fhir/R4/valueset.html#) resource.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/code-search-support|4.0.1</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.codeSearch.id</t>
   </si>
   <si>
     <t>xml:id (or equivalent in JSON)</t>
   </si>
   <si>
     <t>unique id for the element within a resource (for internal references)</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.codeSystem.version.language.extension</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.codeSystem.version.language.extension:language</t>
-  </si>
-  <si>
-    <t>language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TerminologyCapabilities.codeSystem.version.language|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for TerminologyCapabilities.codeSystem.version.language from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `TerminologyCapabilities.codeSystem.version.language` is mapped to FHIR R4 element `TerminologyCapabilities.codeSystem.version.language`.</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.codeSystem.version.language.value</t>
-  </si>
-  <si>
-    <t>Primitive value for code</t>
-  </si>
-  <si>
-    <t>string.value</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.codeSystem.version.filter</t>
-  </si>
-  <si>
-    <t>Filter Properties supported</t>
-  </si>
-  <si>
-    <t>Filter Properties supported.</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.codeSystem.version.filter.id</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.codeSystem.version.filter.extension</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.codeSystem.version.filter.modifierExtension</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.codeSystem.version.filter.code</t>
-  </si>
-  <si>
-    <t>Code of the property supported</t>
-  </si>
-  <si>
-    <t>Code of the property supported.</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.codeSystem.version.filter.op</t>
-  </si>
-  <si>
-    <t>Operations supported for the property</t>
-  </si>
-  <si>
-    <t>Operations supported for the property.</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.codeSystem.version.property</t>
-  </si>
-  <si>
-    <t>Properties supported for $lookup</t>
-  </si>
-  <si>
-    <t>Properties supported for $lookup.</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.codeSystem.subsumption</t>
-  </si>
-  <si>
-    <t>Whether subsumption is supported</t>
-  </si>
-  <si>
-    <t>True if subsumption is supported for this version of the code system.</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.expansion</t>
-  </si>
-  <si>
-    <t>Information about the [ValueSet/$expand](valueset-operation-expand.html) operation</t>
-  </si>
-  <si>
-    <t>Information about the [ValueSet/$expand](http://hl7.org/fhir/R4/valueset-operation-expand.html) operation.</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.expansion.id</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.expansion.extension</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.expansion.modifierExtension</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.expansion.hierarchical</t>
-  </si>
-  <si>
-    <t>Whether the server can return nested value sets</t>
-  </si>
-  <si>
-    <t>Whether the server can return nested value sets.</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.expansion.paging</t>
-  </si>
-  <si>
-    <t>Whether the server supports paging on expansion</t>
-  </si>
-  <si>
-    <t>Whether the server supports paging on expansion.</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.expansion.incomplete</t>
-  </si>
-  <si>
-    <t>Allow request for incomplete expansions?</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.expansion.parameter</t>
-  </si>
-  <si>
-    <t>Supported expansion parameter</t>
-  </si>
-  <si>
-    <t>Supported expansion parameter.</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.expansion.parameter.id</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.expansion.parameter.extension</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.expansion.parameter.modifierExtension</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.expansion.parameter.name</t>
-  </si>
-  <si>
-    <t>Expansion Parameter name</t>
-  </si>
-  <si>
-    <t>Expansion Parameter name.</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.expansion.parameter.documentation</t>
-  </si>
-  <si>
-    <t>Description of support for parameter</t>
-  </si>
-  <si>
-    <t>Description of support for parameter.</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.expansion.textFilter</t>
-  </si>
-  <si>
-    <t>Documentation about text searching works</t>
-  </si>
-  <si>
-    <t>Documentation about text searching works.</t>
-  </si>
-  <si>
-    <t>This documentation should cover things like case sensitivity,  use of punctuation if not ignored, what wild cards are supported (if any), whether text is starts with or contains, and whether word order matters.</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.codeSearch</t>
-  </si>
-  <si>
-    <t>explicit | all</t>
-  </si>
-  <si>
-    <t>The degree to which the server supports the code search parameter on ValueSet, if it is supported.</t>
-  </si>
-  <si>
-    <t>See notes on the [ValueSet](http://hl7.org/fhir/R4/valueset.html#) resource.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/code-search-support|4.0.1</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.codeSearch.id</t>
   </si>
   <si>
     <t>TerminologyCapabilities.codeSearch.extension</t>
@@ -1305,12 +1322,18 @@
     <t>Cross-version extension for TerminologyCapabilities.codeSearch from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `TerminologyCapabilities.codeSearch` is mapped to FHIR R4 element `TerminologyCapabilities.codeSearch`.</t>
+    <t>Element `TerminologyCapabilities.codeSearch` has is mapped to FHIR R4 element `TerminologyCapabilities.codeSearch`, but has no comparisons.</t>
   </si>
   <si>
     <t>TerminologyCapabilities.codeSearch.value</t>
   </si>
   <si>
+    <t>Primitive value for code</t>
+  </si>
+  <si>
+    <t>string.value</t>
+  </si>
+  <si>
     <t>TerminologyCapabilities.validateCode</t>
   </si>
   <si>
@@ -1326,6 +1349,25 @@
     <t>TerminologyCapabilities.validateCode.extension</t>
   </si>
   <si>
+    <t>TerminologyCapabilities.validateCode.extension:validateCode</t>
+  </si>
+  <si>
+    <t>validateCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TerminologyCapabilities.validateCode|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for TerminologyCapabilities.validateCode from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Information about the [ValueSet/$validate-code](https://hl7.org/fhir/valueset-operation-validate-code.html) operation.</t>
+  </si>
+  <si>
+    <t>Element `TerminologyCapabilities.validateCode` has is mapped to FHIR R4 element `TerminologyCapabilities.validateCode`, but has no comparisons.</t>
+  </si>
+  <si>
     <t>TerminologyCapabilities.validateCode.modifierExtension</t>
   </si>
   <si>
@@ -1353,6 +1395,25 @@
     <t>TerminologyCapabilities.translation.extension</t>
   </si>
   <si>
+    <t>TerminologyCapabilities.translation.extension:translation</t>
+  </si>
+  <si>
+    <t>translation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TerminologyCapabilities.translation|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for TerminologyCapabilities.translation from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Information about the [ConceptMap/$translate](https://hl7.org/fhir/conceptmap-operation-translate.html) operation.</t>
+  </si>
+  <si>
+    <t>Element `TerminologyCapabilities.translation` has is mapped to FHIR R4 element `TerminologyCapabilities.translation`, but has no comparisons.</t>
+  </si>
+  <si>
     <t>TerminologyCapabilities.translation.modifierExtension</t>
   </si>
   <si>
@@ -1378,6 +1439,22 @@
   </si>
   <si>
     <t>TerminologyCapabilities.closure.extension</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.closure.extension:closure</t>
+  </si>
+  <si>
+    <t>closure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TerminologyCapabilities.closure|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for TerminologyCapabilities.closure from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `TerminologyCapabilities.closure` has is mapped to FHIR R4 element `TerminologyCapabilities.closure`, but has no comparisons.</t>
   </si>
   <si>
     <t>TerminologyCapabilities.closure.modifierExtension</t>
@@ -1696,7 +1773,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN100"/>
+  <dimension ref="A1:AN102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1705,7 +1782,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="60.6171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="56.2265625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="56.2265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="14.76953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
@@ -1715,7 +1792,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="111.6796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="101.72265625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -5073,7 +5150,7 @@
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5095,14 +5172,12 @@
         <v>131</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>273</v>
+        <v>132</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>77</v>
@@ -5139,19 +5214,17 @@
         <v>77</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC30" s="2"/>
       <c r="AD30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5166,7 +5239,7 @@
         <v>137</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
@@ -5180,46 +5253,46 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="C31" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="D31" t="s" s="2">
-        <v>277</v>
+        <v>77</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>131</v>
+        <v>276</v>
       </c>
       <c r="L31" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="M31" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>156</v>
-      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5267,7 +5340,7 @@
         <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5276,13 +5349,13 @@
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
@@ -5296,42 +5369,46 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="M32" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+      <c r="N32" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5379,22 +5456,22 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
@@ -5419,7 +5496,7 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>86</v>
@@ -5442,9 +5519,7 @@
       <c r="M33" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N33" t="s" s="2">
-        <v>287</v>
-      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>77</v>
@@ -5496,7 +5571,7 @@
         <v>284</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>86</v>
@@ -5522,10 +5597,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5548,15 +5623,17 @@
         <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>264</v>
+        <v>166</v>
       </c>
       <c r="L34" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M34" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5605,7 +5682,7 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>78</v>
@@ -5614,7 +5691,7 @@
         <v>86</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>291</v>
+        <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>98</v>
@@ -5634,10 +5711,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5657,16 +5734,16 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>166</v>
+        <v>264</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5717,7 +5794,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5726,13 +5803,13 @@
         <v>86</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>77</v>
+        <v>294</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>77</v>
@@ -5746,21 +5823,21 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>77</v>
@@ -5772,17 +5849,15 @@
         <v>77</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -5831,19 +5906,19 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>84</v>
@@ -5860,14 +5935,14 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>277</v>
+        <v>77</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
@@ -5880,26 +5955,22 @@
         <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>278</v>
+        <v>132</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>77</v>
       </c>
@@ -5935,19 +6006,17 @@
         <v>77</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC37" s="2"/>
       <c r="AD37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -5962,7 +6031,7 @@
         <v>137</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -5976,18 +6045,20 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>86</v>
@@ -5999,18 +6070,20 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>166</v>
+        <v>299</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -6059,19 +6132,19 @@
         <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>295</v>
+        <v>273</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>77</v>
@@ -6088,42 +6161,46 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>299</v>
+        <v>131</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="P39" t="s" s="2">
         <v>77</v>
       </c>
@@ -6171,22 +6248,22 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -6200,10 +6277,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6211,7 +6288,7 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>86</v>
@@ -6226,13 +6303,13 @@
         <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6283,10 +6360,10 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>86</v>
@@ -6312,21 +6389,21 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>306</v>
+        <v>77</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>77</v>
@@ -6335,20 +6412,18 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>264</v>
+        <v>307</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N41" t="s" s="2">
         <v>309</v>
       </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6397,19 +6472,19 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>310</v>
+        <v>98</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>77</v>
@@ -6426,10 +6501,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6449,16 +6524,16 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>270</v>
+        <v>312</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6509,7 +6584,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>271</v>
+        <v>310</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6521,10 +6596,10 @@
         <v>77</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>77</v>
@@ -6538,18 +6613,18 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>77</v>
+        <v>314</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>79</v>
@@ -6564,15 +6639,17 @@
         <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>131</v>
+        <v>264</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>132</v>
+        <v>315</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>317</v>
+      </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6609,17 +6686,19 @@
         <v>77</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC43" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>275</v>
+        <v>313</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6631,7 +6710,7 @@
         <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>137</v>
+        <v>318</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>77</v>
@@ -6648,20 +6727,18 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="C44" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>86</v>
@@ -6676,17 +6753,15 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>315</v>
+        <v>166</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>316</v>
+        <v>269</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>318</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -6735,22 +6810,22 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
@@ -6764,14 +6839,14 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>277</v>
+        <v>77</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -6784,26 +6859,22 @@
         <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>278</v>
+        <v>132</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>77</v>
       </c>
@@ -6839,19 +6910,17 @@
         <v>77</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC45" s="2"/>
       <c r="AD45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6866,7 +6935,7 @@
         <v>137</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -6880,12 +6949,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="C46" s="2"/>
+      <c r="C46" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="D46" t="s" s="2">
         <v>77</v>
       </c>
@@ -6894,7 +6965,7 @@
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>77</v>
@@ -6906,15 +6977,17 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>325</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -6963,19 +7036,19 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>320</v>
+        <v>273</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>77</v>
@@ -6992,14 +7065,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7012,24 +7085,26 @@
         <v>77</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>264</v>
+        <v>131</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>325</v>
+        <v>281</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>155</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7077,7 +7152,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7089,10 +7164,10 @@
         <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7106,10 +7181,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7132,13 +7207,13 @@
         <v>77</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>166</v>
+        <v>328</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>269</v>
+        <v>329</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>270</v>
+        <v>330</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7189,7 +7264,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>271</v>
+        <v>327</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7201,10 +7276,10 @@
         <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7218,14 +7293,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7244,16 +7319,16 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>131</v>
+        <v>264</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>273</v>
+        <v>332</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>274</v>
+        <v>333</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>155</v>
+        <v>334</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7303,7 +7378,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>275</v>
+        <v>331</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7315,10 +7390,10 @@
         <v>77</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7332,46 +7407,42 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>277</v>
+        <v>77</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>77</v>
       </c>
@@ -7419,22 +7490,22 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7448,21 +7519,21 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>77</v>
@@ -7471,18 +7542,20 @@
         <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>77</v>
@@ -7531,22 +7604,22 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>331</v>
+        <v>273</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>334</v>
+        <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7560,42 +7633,46 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>336</v>
+        <v>281</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>77</v>
       </c>
@@ -7643,22 +7720,22 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>335</v>
+        <v>283</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -7672,10 +7749,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7695,16 +7772,16 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -7755,7 +7832,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7764,7 +7841,7 @@
         <v>86</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>77</v>
+        <v>343</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>98</v>
@@ -7784,10 +7861,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7798,7 +7875,7 @@
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>77</v>
@@ -7807,16 +7884,16 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>106</v>
+        <v>193</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7867,13 +7944,13 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>77</v>
@@ -7896,10 +7973,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7922,13 +7999,13 @@
         <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7979,7 +8056,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>271</v>
+        <v>347</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -7991,7 +8068,7 @@
         <v>77</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>77</v>
@@ -8008,10 +8085,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8034,13 +8111,13 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>132</v>
+        <v>351</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>133</v>
+        <v>352</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8079,17 +8156,19 @@
         <v>77</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC56" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>275</v>
+        <v>350</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8101,7 +8180,7 @@
         <v>77</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>77</v>
@@ -8118,14 +8197,12 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="C57" t="s" s="2">
-        <v>349</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
         <v>77</v>
       </c>
@@ -8146,17 +8223,15 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>350</v>
+        <v>264</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>352</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>77</v>
@@ -8205,7 +8280,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>275</v>
+        <v>353</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8214,10 +8289,10 @@
         <v>79</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>77</v>
@@ -8234,10 +8309,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8263,10 +8338,10 @@
         <v>166</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>354</v>
+        <v>269</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>354</v>
+        <v>270</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8317,7 +8392,7 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>355</v>
+        <v>271</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8332,7 +8407,7 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8346,14 +8421,14 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8372,15 +8447,17 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>264</v>
+        <v>131</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>357</v>
+        <v>337</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -8429,7 +8506,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>356</v>
+        <v>273</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8441,10 +8518,10 @@
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>77</v>
@@ -8458,42 +8535,46 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8541,22 +8622,22 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -8570,21 +8651,21 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>77</v>
@@ -8596,17 +8677,15 @@
         <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>273</v>
+        <v>360</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>77</v>
@@ -8655,22 +8734,22 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>275</v>
+        <v>359</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -8684,18 +8763,18 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>277</v>
+        <v>77</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>79</v>
@@ -8704,26 +8783,22 @@
         <v>77</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>278</v>
+        <v>363</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O62" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>77</v>
       </c>
@@ -8771,10 +8846,10 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>280</v>
+        <v>362</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>79</v>
@@ -8783,10 +8858,10 @@
         <v>77</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
@@ -8800,10 +8875,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8811,10 +8886,10 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>77</v>
@@ -8829,10 +8904,10 @@
         <v>106</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8883,13 +8958,13 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>77</v>
@@ -8912,10 +8987,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8923,10 +8998,10 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>77</v>
@@ -8938,13 +9013,13 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>106</v>
+        <v>193</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8995,13 +9070,13 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>77</v>
@@ -9024,10 +9099,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9038,7 +9113,7 @@
         <v>78</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>77</v>
@@ -9050,13 +9125,13 @@
         <v>77</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>106</v>
+        <v>264</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9107,13 +9182,13 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>77</v>
@@ -9136,10 +9211,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9162,13 +9237,13 @@
         <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>372</v>
+        <v>269</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>373</v>
+        <v>270</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9219,7 +9294,7 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>371</v>
+        <v>271</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9231,10 +9306,10 @@
         <v>77</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
@@ -9248,10 +9323,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9262,7 +9337,7 @@
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>77</v>
@@ -9274,13 +9349,13 @@
         <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>264</v>
+        <v>131</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>375</v>
+        <v>132</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>376</v>
+        <v>133</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9319,31 +9394,29 @@
         <v>77</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC67" s="2"/>
       <c r="AD67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>374</v>
+        <v>273</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>77</v>
@@ -9360,12 +9433,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="C68" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="B68" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
         <v>77</v>
       </c>
@@ -9386,15 +9461,17 @@
         <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>166</v>
+        <v>378</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>269</v>
+        <v>379</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>380</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>381</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -9443,22 +9520,22 @@
         <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -9472,14 +9549,14 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>152</v>
+        <v>280</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -9492,24 +9569,26 @@
         <v>77</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="N69" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="O69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>77</v>
       </c>
@@ -9557,7 +9636,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -9572,7 +9651,7 @@
         <v>137</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
@@ -9586,46 +9665,42 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>277</v>
+        <v>77</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>131</v>
+        <v>193</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>278</v>
+        <v>384</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>77</v>
       </c>
@@ -9673,22 +9748,22 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>280</v>
+        <v>383</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -9702,10 +9777,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9731,10 +9806,10 @@
         <v>193</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9785,7 +9860,7 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -9814,10 +9889,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9843,10 +9918,10 @@
         <v>193</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9897,7 +9972,7 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -9926,10 +10001,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9940,7 +10015,7 @@
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>77</v>
@@ -9952,13 +10027,13 @@
         <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>193</v>
+        <v>264</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10009,13 +10084,13 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>77</v>
@@ -10038,10 +10113,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10052,7 +10127,7 @@
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>77</v>
@@ -10064,13 +10139,13 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>264</v>
+        <v>166</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>389</v>
+        <v>269</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>390</v>
+        <v>270</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10121,22 +10196,22 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>388</v>
+        <v>271</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
@@ -10150,21 +10225,21 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>77</v>
+        <v>152</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>77</v>
@@ -10176,15 +10251,17 @@
         <v>77</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>269</v>
+        <v>337</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>155</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -10233,19 +10310,19 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>84</v>
@@ -10262,14 +10339,14 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>152</v>
+        <v>280</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -10282,24 +10359,26 @@
         <v>77</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="N76" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="O76" s="2"/>
+      <c r="O76" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="P76" t="s" s="2">
         <v>77</v>
       </c>
@@ -10347,7 +10426,7 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -10362,7 +10441,7 @@
         <v>137</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
@@ -10376,46 +10455,42 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>277</v>
+        <v>77</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>278</v>
+        <v>398</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>399</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>77</v>
       </c>
@@ -10463,22 +10538,22 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>280</v>
+        <v>397</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
@@ -10492,10 +10567,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10503,7 +10578,7 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>86</v>
@@ -10518,13 +10593,13 @@
         <v>77</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10575,10 +10650,10 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>86</v>
@@ -10604,10 +10679,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10630,15 +10705,17 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>166</v>
+        <v>222</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>405</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>77</v>
@@ -10687,7 +10764,7 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -10716,10 +10793,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10742,16 +10819,16 @@
         <v>77</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>222</v>
+        <v>106</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -10777,13 +10854,13 @@
         <v>77</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>77</v>
+        <v>409</v>
       </c>
       <c r="Z80" t="s" s="2">
-        <v>77</v>
+        <v>411</v>
       </c>
       <c r="AA80" t="s" s="2">
         <v>77</v>
@@ -10801,7 +10878,7 @@
         <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -10830,10 +10907,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10856,17 +10933,15 @@
         <v>77</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>407</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>77</v>
@@ -10891,13 +10966,13 @@
         <v>77</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>406</v>
+        <v>77</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>408</v>
+        <v>77</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>77</v>
@@ -10915,7 +10990,7 @@
         <v>77</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>404</v>
+        <v>271</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -10927,7 +11002,7 @@
         <v>77</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>77</v>
@@ -10944,10 +11019,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10958,7 +11033,7 @@
         <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>77</v>
@@ -10970,13 +11045,13 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>345</v>
+        <v>132</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>346</v>
+        <v>133</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11015,31 +11090,29 @@
         <v>77</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC82" s="2"/>
       <c r="AD82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>77</v>
@@ -11056,12 +11129,14 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="C83" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>417</v>
+      </c>
       <c r="D83" t="s" s="2">
         <v>77</v>
       </c>
@@ -11070,7 +11145,7 @@
         <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>77</v>
@@ -11082,15 +11157,17 @@
         <v>77</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>131</v>
+        <v>418</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>132</v>
+        <v>419</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N83" s="2"/>
+        <v>409</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>77</v>
@@ -11127,17 +11204,19 @@
         <v>77</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC83" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -11146,7 +11225,7 @@
         <v>79</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>137</v>
@@ -11166,14 +11245,12 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="C84" t="s" s="2">
-        <v>412</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
         <v>77</v>
       </c>
@@ -11194,17 +11271,15 @@
         <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>413</v>
+        <v>166</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>415</v>
-      </c>
+        <v>422</v>
+      </c>
+      <c r="N84" s="2"/>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>77</v>
@@ -11253,19 +11328,19 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>275</v>
+        <v>423</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>77</v>
@@ -11282,10 +11357,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11308,13 +11383,13 @@
         <v>77</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>166</v>
+        <v>264</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>354</v>
+        <v>425</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>354</v>
+        <v>426</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11365,7 +11440,7 @@
         <v>77</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>355</v>
+        <v>424</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -11377,7 +11452,7 @@
         <v>77</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>77</v>
@@ -11394,10 +11469,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11420,13 +11495,13 @@
         <v>77</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>264</v>
+        <v>166</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>418</v>
+        <v>269</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>419</v>
+        <v>270</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11477,7 +11552,7 @@
         <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>417</v>
+        <v>271</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -11489,10 +11564,10 @@
         <v>77</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
@@ -11506,10 +11581,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11520,7 +11595,7 @@
         <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>77</v>
@@ -11532,13 +11607,13 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>269</v>
+        <v>132</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>270</v>
+        <v>133</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11577,34 +11652,32 @@
         <v>77</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC87" s="2"/>
       <c r="AD87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
@@ -11618,21 +11691,23 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="C88" s="2"/>
+        <v>428</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="D88" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>77</v>
@@ -11644,16 +11719,16 @@
         <v>77</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>131</v>
+        <v>431</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>273</v>
+        <v>432</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>274</v>
+        <v>433</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>155</v>
+        <v>434</v>
       </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
@@ -11703,7 +11778,7 @@
         <v>77</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -11712,13 +11787,13 @@
         <v>79</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>77</v>
@@ -11732,14 +11807,14 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>422</v>
+        <v>435</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
@@ -11761,10 +11836,10 @@
         <v>131</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="N89" t="s" s="2">
         <v>155</v>
@@ -11819,7 +11894,7 @@
         <v>77</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -11848,10 +11923,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11877,10 +11952,10 @@
         <v>193</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>425</v>
+        <v>438</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -11931,7 +12006,7 @@
         <v>77</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>423</v>
+        <v>436</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>86</v>
@@ -11960,10 +12035,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11989,10 +12064,10 @@
         <v>264</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12043,7 +12118,7 @@
         <v>77</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>78</v>
@@ -12072,10 +12147,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>429</v>
+        <v>442</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12184,14 +12259,14 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>430</v>
+        <v>443</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
@@ -12213,14 +12288,12 @@
         <v>131</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>273</v>
+        <v>132</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N93" s="2"/>
       <c r="O93" s="2"/>
       <c r="P93" t="s" s="2">
         <v>77</v>
@@ -12257,19 +12330,17 @@
         <v>77</v>
       </c>
       <c r="AB93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC93" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC93" s="2"/>
       <c r="AD93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
@@ -12284,7 +12355,7 @@
         <v>137</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>77</v>
@@ -12298,46 +12369,46 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>431</v>
+        <v>444</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="C94" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="C94" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="D94" t="s" s="2">
-        <v>277</v>
+        <v>77</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I94" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>131</v>
+        <v>446</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>278</v>
+        <v>447</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>279</v>
+        <v>448</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O94" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>77</v>
       </c>
@@ -12385,7 +12456,7 @@
         <v>77</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -12394,13 +12465,13 @@
         <v>79</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL94" t="s" s="2">
         <v>77</v>
@@ -12414,42 +12485,46 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>433</v>
+        <v>281</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O95" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="P95" t="s" s="2">
         <v>77</v>
       </c>
@@ -12497,22 +12572,22 @@
         <v>77</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>432</v>
+        <v>283</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>77</v>
@@ -12526,10 +12601,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -12537,7 +12612,7 @@
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>86</v>
@@ -12552,13 +12627,13 @@
         <v>77</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>264</v>
+        <v>193</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>436</v>
+        <v>452</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>437</v>
+        <v>453</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
@@ -12609,10 +12684,10 @@
         <v>77</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>86</v>
@@ -12638,10 +12713,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>438</v>
+        <v>454</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12664,13 +12739,13 @@
         <v>77</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>166</v>
+        <v>264</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>269</v>
+        <v>455</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>270</v>
+        <v>456</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -12721,7 +12796,7 @@
         <v>77</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>271</v>
+        <v>454</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>78</v>
@@ -12733,10 +12808,10 @@
         <v>77</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>77</v>
@@ -12750,21 +12825,21 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>439</v>
+        <v>457</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>439</v>
+        <v>457</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>77</v>
@@ -12776,17 +12851,15 @@
         <v>77</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="N98" s="2"/>
       <c r="O98" s="2"/>
       <c r="P98" t="s" s="2">
         <v>77</v>
@@ -12835,19 +12908,19 @@
         <v>77</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH98" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI98" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>84</v>
@@ -12864,14 +12937,14 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>440</v>
+        <v>458</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>440</v>
+        <v>458</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>277</v>
+        <v>77</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
@@ -12884,26 +12957,22 @@
         <v>77</v>
       </c>
       <c r="I99" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>278</v>
+        <v>132</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O99" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>77</v>
       </c>
@@ -12939,19 +13008,17 @@
         <v>77</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC99" s="2"/>
       <c r="AD99" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
@@ -12966,7 +13033,7 @@
         <v>137</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>77</v>
@@ -12980,12 +13047,14 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>441</v>
+        <v>459</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="C100" s="2"/>
+        <v>458</v>
+      </c>
+      <c r="C100" t="s" s="2">
+        <v>460</v>
+      </c>
       <c r="D100" t="s" s="2">
         <v>77</v>
       </c>
@@ -13006,15 +13075,17 @@
         <v>77</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>193</v>
+        <v>461</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>442</v>
+        <v>462</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="N100" s="2"/>
+        <v>456</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>463</v>
+      </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>77</v>
@@ -13063,30 +13134,258 @@
         <v>77</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>441</v>
+        <v>273</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AJ100" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="P101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q101" s="2"/>
+      <c r="R101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q102" s="2"/>
+      <c r="R102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AK100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN100" t="s" s="2">
+      <c r="AK102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN102" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-TerminologyCapabilities.xlsx
+++ b/StructureDefinition-profile-TerminologyCapabilities.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3679" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3716" uniqueCount="474">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T14:42:26.9348695-06:00</t>
+    <t>2026-02-20T11:59:20.9700927-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/TerminologyCapabilities|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/TerminologyCapabilities</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -443,13 +443,53 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>TerminologyCapabilities.extension:copyrightLabel</t>
+  </si>
+  <si>
+    <t>copyrightLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-copyrightLabel}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for TerminologyCapabilities.copyrightLabel from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `TerminologyCapabilities.copyrightLabel`: `http://hl7.org/fhir/StructureDefinition/artifact-copyrightLabel`.
+Element `TerminologyCapabilities.copyrightLabel` has a context of TerminologyCapabilities based on following the parent source element upwards and mapping to `TerminologyCapabilities`.</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.extension:identifier</t>
+  </si>
+  <si>
+    <t>identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {artifact-identifier}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for TerminologyCapabilities.identifier from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>A formal identifier that is used to identify this artifact when it is represented in other formats, or referenced in a specification, model, design or an instance.</t>
+  </si>
+  <si>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `TerminologyCapabilities.identifier`: `http://hl7.org/fhir/StructureDefinition/artifact-identifier`.
+Element `TerminologyCapabilities.identifier` has a context of TerminologyCapabilities based on following the parent source element upwards and mapping to `TerminologyCapabilities`.</t>
+  </si>
+  <si>
     <t>TerminologyCapabilities.extension:versionAlgorithm</t>
   </si>
   <si>
     <t>versionAlgorithm</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TerminologyCapabilities.versionAlgorithm|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {artifact-versionAlgorithm}
 </t>
   </si>
   <si>
@@ -459,30 +499,8 @@
     <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
   </si>
   <si>
-    <t>Element `TerminologyCapabilities.versionAlgorithm[x]` has a context of TerminologyCapabilities based on following the parent source element upwards and mapping to `TerminologyCapabilities`.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.extension:copyrightLabel</t>
-  </si>
-  <si>
-    <t>copyrightLabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TerminologyCapabilities.copyrightLabel|0.0.1-snapshot-3}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for TerminologyCapabilities.copyrightLabel from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
-  </si>
-  <si>
-    <t>Element `TerminologyCapabilities.copyrightLabel` has a context of TerminologyCapabilities based on following the parent source element upwards and mapping to `TerminologyCapabilities`.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `TerminologyCapabilities.versionAlgorithm[x]`: `http://hl7.org/fhir/StructureDefinition/artifact-versionAlgorithm`.
+Element `TerminologyCapabilities.versionAlgorithm[x]` has a context of TerminologyCapabilities based on following the parent source element upwards and mapping to `TerminologyCapabilities`.</t>
   </si>
   <si>
     <t>TerminologyCapabilities.modifierExtension</t>
@@ -877,7 +895,7 @@
     <t>software</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TerminologyCapabilities.software|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TerminologyCapabilities.software}
 </t>
   </si>
   <si>
@@ -885,6 +903,10 @@
   </si>
   <si>
     <t>Element `TerminologyCapabilities.software` has is mapped to FHIR R4 element `TerminologyCapabilities.software`, but has no comparisons.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
   </si>
   <si>
     <t>TerminologyCapabilities.software.modifierExtension</t>
@@ -950,7 +972,7 @@
     <t>implementation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TerminologyCapabilities.implementation|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TerminologyCapabilities.implementation}
 </t>
   </si>
   <si>
@@ -1026,7 +1048,7 @@
     <t>codeSystem</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TerminologyCapabilities.codeSystem|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TerminologyCapabilities.codeSystem}
 </t>
   </si>
   <si>
@@ -1194,7 +1216,7 @@
     <t>expansion</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TerminologyCapabilities.expansion|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TerminologyCapabilities.expansion}
 </t>
   </si>
   <si>
@@ -1315,7 +1337,7 @@
     <t>codeSearch</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TerminologyCapabilities.codeSearch|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TerminologyCapabilities.codeSearch}
 </t>
   </si>
   <si>
@@ -1355,7 +1377,7 @@
     <t>validateCode</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TerminologyCapabilities.validateCode|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TerminologyCapabilities.validateCode}
 </t>
   </si>
   <si>
@@ -1401,7 +1423,7 @@
     <t>translation</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TerminologyCapabilities.translation|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TerminologyCapabilities.translation}
 </t>
   </si>
   <si>
@@ -1447,7 +1469,7 @@
     <t>closure</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TerminologyCapabilities.closure|0.0.1-snapshot-3}
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TerminologyCapabilities.closure}
 </t>
   </si>
   <si>
@@ -1773,7 +1795,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN102"/>
+  <dimension ref="A1:AN103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1792,7 +1814,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="101.72265625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="86.359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2947,7 +2969,7 @@
         <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>137</v>
@@ -2967,13 +2989,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>130</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>77</v>
@@ -2983,7 +3005,7 @@
         <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>77</v>
@@ -2995,16 +3017,16 @@
         <v>77</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>150</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3063,7 +3085,7 @@
         <v>79</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>137</v>
@@ -3083,33 +3105,35 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="C12" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="B12" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>153</v>
@@ -3120,9 +3144,7 @@
       <c r="N12" t="s" s="2">
         <v>155</v>
       </c>
-      <c r="O12" t="s" s="2">
-        <v>156</v>
-      </c>
+      <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
         <v>77</v>
       </c>
@@ -3170,7 +3192,7 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
@@ -3185,7 +3207,7 @@
         <v>137</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>77</v>
@@ -3199,45 +3221,45 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="L13" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="N13" t="s" s="2">
+      <c r="O13" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="O13" t="s" s="2">
-        <v>162</v>
       </c>
       <c r="P13" t="s" s="2">
         <v>77</v>
@@ -3286,28 +3308,28 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>163</v>
+        <v>77</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>164</v>
+        <v>77</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>77</v>
@@ -3315,10 +3337,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3341,18 +3363,20 @@
         <v>87</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L14" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="M14" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>77</v>
       </c>
@@ -3400,7 +3424,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -3418,10 +3442,10 @@
         <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>77</v>
@@ -3429,10 +3453,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3455,20 +3479,18 @@
         <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="N15" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>176</v>
-      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>77</v>
       </c>
@@ -3516,7 +3538,7 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>78</v>
@@ -3525,7 +3547,7 @@
         <v>86</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="AJ15" t="s" s="2">
         <v>98</v>
@@ -3534,10 +3556,10 @@
         <v>77</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>77</v>
+        <v>176</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>77</v>
@@ -3545,10 +3567,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3571,18 +3593,20 @@
         <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>77</v>
       </c>
@@ -3630,7 +3654,7 @@
         <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3639,7 +3663,7 @@
         <v>86</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>77</v>
+        <v>182</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>98</v>
@@ -3648,7 +3672,7 @@
         <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>77</v>
@@ -3670,7 +3694,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>86</v>
@@ -3679,13 +3703,13 @@
         <v>77</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>106</v>
+        <v>171</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>184</v>
@@ -3720,13 +3744,13 @@
         <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>189</v>
+        <v>77</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>77</v>
@@ -3747,7 +3771,7 @@
         <v>183</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>86</v>
@@ -3762,10 +3786,10 @@
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>191</v>
+        <v>77</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -3773,10 +3797,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3784,7 +3808,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>86</v>
@@ -3793,26 +3817,24 @@
         <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>77</v>
       </c>
@@ -3836,13 +3858,13 @@
         <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>77</v>
+        <v>193</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>77</v>
+        <v>194</v>
       </c>
       <c r="AA18" t="s" s="2">
         <v>77</v>
@@ -3860,10 +3882,10 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>86</v>
@@ -3878,10 +3900,10 @@
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -3889,18 +3911,18 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>86</v>
@@ -3915,18 +3937,20 @@
         <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="O19" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L19" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>204</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3974,10 +3998,10 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>86</v>
@@ -3992,10 +4016,10 @@
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -4003,18 +4027,18 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>77</v>
+        <v>206</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>86</v>
@@ -4029,20 +4053,18 @@
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>166</v>
+        <v>207</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="N20" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>212</v>
-      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>77</v>
       </c>
@@ -4090,10 +4112,10 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>86</v>
@@ -4108,10 +4130,10 @@
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -4119,10 +4141,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4133,7 +4155,7 @@
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>77</v>
@@ -4145,18 +4167,20 @@
         <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="N21" t="s" s="2">
         <v>216</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="O21" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="M21" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>77</v>
       </c>
@@ -4204,13 +4228,13 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>77</v>
@@ -4222,10 +4246,10 @@
         <v>77</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>77</v>
+        <v>219</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4233,10 +4257,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4247,7 +4271,7 @@
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
@@ -4256,19 +4280,19 @@
         <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>225</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4318,13 +4342,13 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>77</v>
@@ -4336,7 +4360,7 @@
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -4347,10 +4371,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4361,7 +4385,7 @@
         <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>77</v>
@@ -4370,23 +4394,21 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="N23" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>232</v>
-      </c>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4434,13 +4456,13 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>77</v>
@@ -4452,7 +4474,7 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -4463,10 +4485,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4489,18 +4511,20 @@
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="N24" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4524,13 +4548,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>239</v>
+        <v>77</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>240</v>
+        <v>77</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>241</v>
+        <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -4548,7 +4572,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4566,7 +4590,7 @@
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -4577,10 +4601,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4591,7 +4615,7 @@
         <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>77</v>
@@ -4600,19 +4624,19 @@
         <v>77</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4638,13 +4662,13 @@
         <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>77</v>
+        <v>244</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>77</v>
+        <v>245</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>77</v>
+        <v>246</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>77</v>
@@ -4662,13 +4686,13 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>77</v>
@@ -4683,22 +4707,22 @@
         <v>247</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>248</v>
+        <v>77</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>249</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>251</v>
+        <v>77</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4714,21 +4738,21 @@
         <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>254</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
       </c>
@@ -4776,7 +4800,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -4794,29 +4818,29 @@
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>77</v>
+        <v>256</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>86</v>
@@ -4831,7 +4855,7 @@
         <v>87</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>106</v>
+        <v>227</v>
       </c>
       <c r="L27" t="s" s="2">
         <v>257</v>
@@ -4866,13 +4890,13 @@
         <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>260</v>
+        <v>77</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>261</v>
+        <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>77</v>
@@ -4890,16 +4914,16 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>262</v>
+        <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
         <v>98</v>
@@ -4908,21 +4932,21 @@
         <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>77</v>
+        <v>260</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>77</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4930,7 +4954,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>86</v>
@@ -4945,16 +4969,18 @@
         <v>87</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L28" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="N28" s="2"/>
+      <c r="O28" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="L28" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>77</v>
       </c>
@@ -4978,13 +5004,13 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>77</v>
+        <v>265</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>77</v>
+        <v>266</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -5002,10 +5028,10 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>86</v>
@@ -5054,16 +5080,16 @@
         <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>166</v>
+        <v>269</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5114,7 +5140,7 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5123,13 +5149,13 @@
         <v>86</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>77</v>
+        <v>272</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
@@ -5143,10 +5169,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5157,7 +5183,7 @@
         <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>77</v>
@@ -5169,13 +5195,13 @@
         <v>77</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>132</v>
+        <v>274</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>133</v>
+        <v>275</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5214,32 +5240,34 @@
         <v>77</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC30" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
@@ -5253,14 +5281,12 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>275</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5269,7 +5295,7 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
@@ -5281,17 +5307,15 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>276</v>
+        <v>131</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>277</v>
+        <v>132</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -5328,19 +5352,17 @@
         <v>77</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC31" s="2"/>
       <c r="AD31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5349,7 +5371,7 @@
         <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>137</v>
@@ -5372,43 +5394,43 @@
         <v>279</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="D32" t="s" s="2">
-        <v>280</v>
+        <v>77</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>131</v>
+        <v>281</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O32" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5456,7 +5478,7 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5465,13 +5487,13 @@
         <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
@@ -5485,42 +5507,46 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>77</v>
+        <v>286</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O33" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5568,22 +5594,22 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
@@ -5597,10 +5623,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5608,7 +5634,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>86</v>
@@ -5623,17 +5649,15 @@
         <v>87</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5682,10 +5706,10 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>86</v>
@@ -5711,10 +5735,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5737,15 +5761,17 @@
         <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>264</v>
+        <v>171</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>77</v>
@@ -5794,7 +5820,7 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -5803,7 +5829,7 @@
         <v>86</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>294</v>
+        <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>98</v>
@@ -5823,10 +5849,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5846,16 +5872,16 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>166</v>
+        <v>269</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5906,7 +5932,7 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>271</v>
+        <v>297</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -5915,13 +5941,13 @@
         <v>86</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>77</v>
+        <v>300</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -5935,10 +5961,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5949,7 +5975,7 @@
         <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>77</v>
@@ -5961,13 +5987,13 @@
         <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>132</v>
+        <v>274</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>133</v>
+        <v>275</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6006,32 +6032,34 @@
         <v>77</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC37" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -6045,14 +6073,12 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
         <v>77</v>
       </c>
@@ -6061,7 +6087,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>77</v>
@@ -6073,17 +6099,15 @@
         <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>299</v>
+        <v>131</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>300</v>
+        <v>132</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>77</v>
@@ -6120,19 +6144,17 @@
         <v>77</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC38" s="2"/>
       <c r="AD38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6141,7 +6163,7 @@
         <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>137</v>
@@ -6161,46 +6183,46 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="C39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>304</v>
+      </c>
       <c r="D39" t="s" s="2">
-        <v>280</v>
+        <v>77</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>131</v>
+        <v>305</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>281</v>
+        <v>306</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>77</v>
       </c>
@@ -6248,7 +6270,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6257,13 +6279,13 @@
         <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>77</v>
@@ -6277,42 +6299,46 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>77</v>
+        <v>286</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
       </c>
@@ -6360,22 +6386,22 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6389,10 +6415,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6400,7 +6426,7 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>86</v>
@@ -6415,13 +6441,13 @@
         <v>87</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>307</v>
+        <v>171</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6472,10 +6498,10 @@
         <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>86</v>
@@ -6501,10 +6527,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6527,13 +6553,13 @@
         <v>87</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>193</v>
+        <v>313</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6584,7 +6610,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6613,21 +6639,21 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>314</v>
+        <v>77</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
@@ -6636,20 +6662,18 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>264</v>
+        <v>198</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6698,19 +6722,19 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>318</v>
+        <v>98</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>77</v>
@@ -6734,14 +6758,14 @@
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>77</v>
+        <v>320</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>77</v>
@@ -6753,15 +6777,17 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>166</v>
+        <v>269</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>269</v>
+        <v>321</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -6810,22 +6836,22 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>271</v>
+        <v>319</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>77</v>
+        <v>324</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>77</v>
@@ -6839,10 +6865,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6853,7 +6879,7 @@
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
@@ -6865,13 +6891,13 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>132</v>
+        <v>274</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>133</v>
+        <v>275</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6910,32 +6936,34 @@
         <v>77</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC45" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -6949,14 +6977,12 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="C46" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
         <v>77</v>
       </c>
@@ -6977,17 +7003,15 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>323</v>
+        <v>131</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>324</v>
+        <v>132</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>325</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -7024,19 +7048,17 @@
         <v>77</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC46" s="2"/>
       <c r="AD46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7045,7 +7067,7 @@
         <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>137</v>
@@ -7065,14 +7087,16 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="C47" s="2"/>
+      <c r="C47" t="s" s="2">
+        <v>328</v>
+      </c>
       <c r="D47" t="s" s="2">
-        <v>280</v>
+        <v>77</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7085,26 +7109,24 @@
         <v>77</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>131</v>
+        <v>329</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>281</v>
+        <v>330</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>282</v>
+        <v>322</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7152,7 +7174,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7161,13 +7183,13 @@
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7181,42 +7203,46 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>77</v>
+        <v>286</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>328</v>
+        <v>131</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>329</v>
+        <v>287</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
       </c>
@@ -7264,22 +7290,22 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>327</v>
+        <v>289</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>77</v>
@@ -7293,10 +7319,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7307,7 +7333,7 @@
         <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
@@ -7319,17 +7345,15 @@
         <v>77</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>264</v>
+        <v>334</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7378,13 +7402,13 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>77</v>
@@ -7407,10 +7431,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7421,7 +7445,7 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
@@ -7433,15 +7457,17 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>166</v>
+        <v>269</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>269</v>
+        <v>338</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>339</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>340</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7490,22 +7516,22 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>271</v>
+        <v>337</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7519,21 +7545,21 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>77</v>
@@ -7545,17 +7571,15 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>337</v>
+        <v>274</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>77</v>
@@ -7604,19 +7628,19 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>84</v>
@@ -7633,14 +7657,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>280</v>
+        <v>157</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7653,26 +7677,24 @@
         <v>77</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>281</v>
+        <v>343</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>282</v>
+        <v>344</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>77</v>
       </c>
@@ -7720,7 +7742,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7735,7 +7757,7 @@
         <v>137</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -7749,42 +7771,46 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>77</v>
+        <v>286</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J53" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>166</v>
+        <v>131</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>341</v>
+        <v>287</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>77</v>
       </c>
@@ -7832,22 +7858,22 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>340</v>
+        <v>289</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>343</v>
+        <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -7861,10 +7887,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7887,13 +7913,13 @@
         <v>87</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7944,7 +7970,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -7953,7 +7979,7 @@
         <v>86</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>77</v>
+        <v>349</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>98</v>
@@ -7973,10 +7999,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7996,16 +8022,16 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8056,7 +8082,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8085,10 +8111,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8099,7 +8125,7 @@
         <v>78</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>77</v>
@@ -8111,13 +8137,13 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>106</v>
+        <v>198</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8168,13 +8194,13 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>77</v>
@@ -8197,10 +8223,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8223,13 +8249,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>264</v>
+        <v>106</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8280,7 +8306,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8309,10 +8335,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8323,7 +8349,7 @@
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>77</v>
@@ -8335,13 +8361,13 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>166</v>
+        <v>269</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>269</v>
+        <v>360</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>270</v>
+        <v>361</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8392,22 +8418,22 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>271</v>
+        <v>359</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8421,21 +8447,21 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>77</v>
@@ -8447,17 +8473,15 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>337</v>
+        <v>274</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -8506,19 +8530,19 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>84</v>
@@ -8535,14 +8559,14 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>280</v>
+        <v>157</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8555,26 +8579,24 @@
         <v>77</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>281</v>
+        <v>343</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>282</v>
+        <v>344</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8622,7 +8644,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8637,7 +8659,7 @@
         <v>137</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -8651,42 +8673,46 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>77</v>
+        <v>286</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>360</v>
+        <v>287</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8734,22 +8760,22 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>359</v>
+        <v>289</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -8763,10 +8789,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8777,7 +8803,7 @@
         <v>86</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>77</v>
@@ -8792,10 +8818,10 @@
         <v>106</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8846,13 +8872,13 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>77</v>
@@ -8875,10 +8901,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8886,7 +8912,7 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>79</v>
@@ -8904,10 +8930,10 @@
         <v>106</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8958,10 +8984,10 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>79</v>
@@ -8987,10 +9013,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9001,7 +9027,7 @@
         <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>77</v>
@@ -9013,13 +9039,13 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>193</v>
+        <v>106</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9070,13 +9096,13 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>77</v>
@@ -9099,10 +9125,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9125,13 +9151,13 @@
         <v>77</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>264</v>
+        <v>198</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9182,7 +9208,7 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9211,10 +9237,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9237,13 +9263,13 @@
         <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>166</v>
+        <v>269</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>269</v>
+        <v>378</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>270</v>
+        <v>379</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9294,7 +9320,7 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>271</v>
+        <v>377</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9306,10 +9332,10 @@
         <v>77</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
@@ -9323,10 +9349,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>375</v>
+        <v>380</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9337,7 +9363,7 @@
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>77</v>
@@ -9349,13 +9375,13 @@
         <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>132</v>
+        <v>274</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>133</v>
+        <v>275</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9394,32 +9420,34 @@
         <v>77</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC67" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
@@ -9433,14 +9461,12 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>376</v>
+        <v>381</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="C68" t="s" s="2">
-        <v>377</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
         <v>77</v>
       </c>
@@ -9449,7 +9475,7 @@
         <v>78</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>77</v>
@@ -9461,17 +9487,15 @@
         <v>77</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>378</v>
+        <v>131</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>379</v>
+        <v>132</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>381</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>77</v>
@@ -9508,19 +9532,17 @@
         <v>77</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC68" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC68" s="2"/>
       <c r="AD68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9529,7 +9551,7 @@
         <v>79</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>137</v>
@@ -9552,43 +9574,43 @@
         <v>382</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>382</v>
-      </c>
-      <c r="C69" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="D69" t="s" s="2">
-        <v>280</v>
+        <v>77</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>131</v>
+        <v>384</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>281</v>
+        <v>385</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>282</v>
+        <v>386</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O69" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>77</v>
       </c>
@@ -9636,7 +9658,7 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -9645,13 +9667,13 @@
         <v>79</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="AJ69" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
@@ -9665,42 +9687,46 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>77</v>
+        <v>286</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>384</v>
+        <v>287</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="N70" s="2"/>
-      <c r="O70" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O70" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="P70" t="s" s="2">
         <v>77</v>
       </c>
@@ -9748,22 +9774,22 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>383</v>
+        <v>289</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -9777,10 +9803,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9803,13 +9829,13 @@
         <v>77</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9860,7 +9886,7 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -9889,10 +9915,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9915,13 +9941,13 @@
         <v>77</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9972,7 +9998,7 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10001,10 +10027,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10015,7 +10041,7 @@
         <v>78</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>77</v>
@@ -10027,13 +10053,13 @@
         <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>264</v>
+        <v>198</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10084,13 +10110,13 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>77</v>
@@ -10113,10 +10139,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10127,7 +10153,7 @@
         <v>78</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>77</v>
@@ -10139,13 +10165,13 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>166</v>
+        <v>269</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>269</v>
+        <v>398</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>270</v>
+        <v>399</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10196,22 +10222,22 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>271</v>
+        <v>397</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
@@ -10225,21 +10251,21 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>152</v>
+        <v>77</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>77</v>
@@ -10251,17 +10277,15 @@
         <v>77</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>337</v>
+        <v>274</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>155</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>77</v>
@@ -10310,19 +10334,19 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>84</v>
@@ -10339,14 +10363,14 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>280</v>
+        <v>157</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
@@ -10359,26 +10383,24 @@
         <v>77</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K76" t="s" s="2">
         <v>131</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>281</v>
+        <v>343</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>282</v>
+        <v>344</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>77</v>
       </c>
@@ -10426,7 +10448,7 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>78</v>
@@ -10441,7 +10463,7 @@
         <v>137</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
@@ -10455,42 +10477,46 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>77</v>
+        <v>286</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>398</v>
+        <v>287</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>77</v>
       </c>
@@ -10538,22 +10564,22 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>397</v>
+        <v>289</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
@@ -10567,10 +10593,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10578,7 +10604,7 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>86</v>
@@ -10593,13 +10619,13 @@
         <v>77</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10650,10 +10676,10 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>86</v>
@@ -10679,10 +10705,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10705,17 +10731,15 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>222</v>
+        <v>171</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>406</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>77</v>
@@ -10764,7 +10788,7 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -10793,10 +10817,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10819,16 +10843,16 @@
         <v>77</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>106</v>
+        <v>227</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
@@ -10854,31 +10878,31 @@
         <v>77</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="Y80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF80" t="s" s="2">
         <v>409</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -10907,10 +10931,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10933,15 +10957,17 @@
         <v>77</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>77</v>
@@ -10966,13 +10992,13 @@
         <v>77</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>77</v>
+        <v>415</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>77</v>
+        <v>417</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>77</v>
@@ -10990,7 +11016,7 @@
         <v>77</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>271</v>
+        <v>413</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
@@ -11002,7 +11028,7 @@
         <v>77</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>77</v>
@@ -11019,10 +11045,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11033,7 +11059,7 @@
         <v>78</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>77</v>
@@ -11045,13 +11071,13 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>132</v>
+        <v>419</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>133</v>
+        <v>420</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11090,29 +11116,31 @@
         <v>77</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC82" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>77</v>
@@ -11129,14 +11157,12 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="C83" t="s" s="2">
-        <v>417</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
         <v>77</v>
       </c>
@@ -11145,7 +11171,7 @@
         <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>77</v>
@@ -11157,17 +11183,15 @@
         <v>77</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>418</v>
+        <v>131</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>419</v>
+        <v>132</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N83" s="2"/>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>77</v>
@@ -11204,19 +11228,17 @@
         <v>77</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC83" s="2"/>
       <c r="AD83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -11225,7 +11247,7 @@
         <v>79</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>137</v>
@@ -11245,12 +11267,14 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="C84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>423</v>
+      </c>
       <c r="D84" t="s" s="2">
         <v>77</v>
       </c>
@@ -11271,15 +11295,17 @@
         <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>166</v>
+        <v>424</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>426</v>
+      </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>77</v>
@@ -11328,19 +11354,19 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>423</v>
+        <v>278</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>77</v>
@@ -11357,10 +11383,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11383,13 +11409,13 @@
         <v>77</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>264</v>
+        <v>171</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11440,7 +11466,7 @@
         <v>77</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -11452,7 +11478,7 @@
         <v>77</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>77</v>
@@ -11469,10 +11495,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11495,13 +11521,13 @@
         <v>77</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>166</v>
+        <v>269</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>269</v>
+        <v>431</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>270</v>
+        <v>432</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11552,7 +11578,7 @@
         <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>271</v>
+        <v>430</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
@@ -11564,10 +11590,10 @@
         <v>77</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
@@ -11581,10 +11607,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11595,7 +11621,7 @@
         <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>77</v>
@@ -11607,13 +11633,13 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>132</v>
+        <v>274</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>133</v>
+        <v>275</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11652,32 +11678,34 @@
         <v>77</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC87" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
@@ -11691,14 +11719,12 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="C88" t="s" s="2">
-        <v>430</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
         <v>77</v>
       </c>
@@ -11707,7 +11733,7 @@
         <v>78</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>77</v>
@@ -11719,17 +11745,15 @@
         <v>77</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>431</v>
+        <v>131</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>432</v>
+        <v>132</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N88" s="2"/>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>77</v>
@@ -11766,19 +11790,17 @@
         <v>77</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC88" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC88" s="2"/>
       <c r="AD88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>78</v>
@@ -11787,7 +11809,7 @@
         <v>79</v>
       </c>
       <c r="AI88" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ88" t="s" s="2">
         <v>137</v>
@@ -11810,43 +11832,43 @@
         <v>435</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="C89" s="2"/>
+        <v>434</v>
+      </c>
+      <c r="C89" t="s" s="2">
+        <v>436</v>
+      </c>
       <c r="D89" t="s" s="2">
-        <v>280</v>
+        <v>77</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>131</v>
+        <v>437</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>281</v>
+        <v>438</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>282</v>
+        <v>439</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O89" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>440</v>
+      </c>
+      <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>77</v>
       </c>
@@ -11894,7 +11916,7 @@
         <v>77</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
@@ -11903,13 +11925,13 @@
         <v>79</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="AJ89" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>77</v>
@@ -11923,42 +11945,46 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>77</v>
+        <v>286</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>437</v>
+        <v>287</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="P90" t="s" s="2">
         <v>77</v>
       </c>
@@ -12006,22 +12032,22 @@
         <v>77</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>436</v>
+        <v>289</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>77</v>
@@ -12035,10 +12061,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12046,7 +12072,7 @@
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>86</v>
@@ -12061,13 +12087,13 @@
         <v>77</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>264</v>
+        <v>198</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -12118,10 +12144,10 @@
         <v>77</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>86</v>
@@ -12147,10 +12173,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12173,13 +12199,13 @@
         <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>166</v>
+        <v>269</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>269</v>
+        <v>446</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>270</v>
+        <v>447</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -12230,7 +12256,7 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>271</v>
+        <v>445</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
@@ -12242,10 +12268,10 @@
         <v>77</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>77</v>
@@ -12259,10 +12285,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12273,7 +12299,7 @@
         <v>78</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>77</v>
@@ -12285,13 +12311,13 @@
         <v>77</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>132</v>
+        <v>274</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>133</v>
+        <v>275</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -12330,32 +12356,34 @@
         <v>77</v>
       </c>
       <c r="AB93" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC93" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>77</v>
@@ -12369,14 +12397,12 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="C94" t="s" s="2">
-        <v>445</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
         <v>77</v>
       </c>
@@ -12385,7 +12411,7 @@
         <v>78</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>77</v>
@@ -12397,17 +12423,15 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>446</v>
+        <v>131</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>447</v>
+        <v>132</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>449</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N94" s="2"/>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>77</v>
@@ -12444,19 +12468,17 @@
         <v>77</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC94" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC94" s="2"/>
       <c r="AD94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
@@ -12465,7 +12487,7 @@
         <v>79</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>137</v>
@@ -12488,43 +12510,43 @@
         <v>450</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="C95" s="2"/>
+        <v>449</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>451</v>
+      </c>
       <c r="D95" t="s" s="2">
-        <v>280</v>
+        <v>77</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>131</v>
+        <v>452</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>281</v>
+        <v>453</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>282</v>
+        <v>454</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O95" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>77</v>
       </c>
@@ -12572,7 +12594,7 @@
         <v>77</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
@@ -12581,13 +12603,13 @@
         <v>79</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="AJ95" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>77</v>
@@ -12601,42 +12623,46 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>77</v>
+        <v>286</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>452</v>
+        <v>287</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O96" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="P96" t="s" s="2">
         <v>77</v>
       </c>
@@ -12684,22 +12710,22 @@
         <v>77</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>451</v>
+        <v>289</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>77</v>
@@ -12713,10 +12739,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12724,7 +12750,7 @@
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>86</v>
@@ -12739,13 +12765,13 @@
         <v>77</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>264</v>
+        <v>198</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -12796,10 +12822,10 @@
         <v>77</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>86</v>
@@ -12825,10 +12851,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -12851,13 +12877,13 @@
         <v>77</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>166</v>
+        <v>269</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>269</v>
+        <v>461</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>270</v>
+        <v>462</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -12908,7 +12934,7 @@
         <v>77</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>271</v>
+        <v>460</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
@@ -12920,10 +12946,10 @@
         <v>77</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>77</v>
@@ -12937,10 +12963,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12951,7 +12977,7 @@
         <v>78</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>77</v>
@@ -12963,13 +12989,13 @@
         <v>77</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>132</v>
+        <v>274</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>133</v>
+        <v>275</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -13008,32 +13034,34 @@
         <v>77</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC99" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD99" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL99" t="s" s="2">
         <v>77</v>
@@ -13047,14 +13075,12 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="C100" t="s" s="2">
-        <v>460</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
         <v>77</v>
       </c>
@@ -13063,7 +13089,7 @@
         <v>78</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>77</v>
@@ -13075,17 +13101,15 @@
         <v>77</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>461</v>
+        <v>131</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>462</v>
+        <v>132</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>463</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="N100" s="2"/>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>77</v>
@@ -13122,19 +13146,17 @@
         <v>77</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="AC100" s="2"/>
       <c r="AD100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>78</v>
@@ -13143,7 +13165,7 @@
         <v>79</v>
       </c>
       <c r="AI100" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AJ100" t="s" s="2">
         <v>137</v>
@@ -13163,46 +13185,46 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B101" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="C101" s="2"/>
+      <c r="C101" t="s" s="2">
+        <v>466</v>
+      </c>
       <c r="D101" t="s" s="2">
-        <v>280</v>
+        <v>77</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>131</v>
+        <v>467</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>281</v>
+        <v>468</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>282</v>
+        <v>462</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>469</v>
+      </c>
+      <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>77</v>
       </c>
@@ -13250,7 +13272,7 @@
         <v>77</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>78</v>
@@ -13259,13 +13281,13 @@
         <v>79</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL101" t="s" s="2">
         <v>77</v>
@@ -13279,42 +13301,46 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>77</v>
+        <v>286</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I102" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>466</v>
+        <v>287</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="N102" s="2"/>
-      <c r="O102" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="O102" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="P102" t="s" s="2">
         <v>77</v>
       </c>
@@ -13362,30 +13388,142 @@
         <v>77</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>465</v>
+        <v>289</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH102" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI102" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ102" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
+      <c r="P103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Q103" s="2"/>
+      <c r="R103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AK102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN102" t="s" s="2">
+      <c r="AK103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN103" t="s" s="2">
         <v>77</v>
       </c>
     </row>

--- a/StructureDefinition-profile-TerminologyCapabilities.xlsx
+++ b/StructureDefinition-profile-TerminologyCapabilities.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3716" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3538" uniqueCount="433">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T11:59:20.9700927-06:00</t>
+    <t>2026-02-21T13:36:54.3767511-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/TerminologyCapabilities</t>
+    <t>http://hl7.org/fhir/StructureDefinition/TerminologyCapabilities|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -419,21 +419,21 @@
     <t>TerminologyCapabilities.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -443,71 +443,7 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
-    <t>TerminologyCapabilities.extension:copyrightLabel</t>
-  </si>
-  <si>
-    <t>copyrightLabel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-copyrightLabel}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for TerminologyCapabilities.copyrightLabel from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A short string (&lt;50 characters), suitable for inclusion in a page footer that identifies the copyright holder, effective period, and optionally whether rights are resctricted. (e.g. 'All rights reserved', 'Some rights reserved').</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `TerminologyCapabilities.copyrightLabel`: `http://hl7.org/fhir/StructureDefinition/artifact-copyrightLabel`.
-Element `TerminologyCapabilities.copyrightLabel` has a context of TerminologyCapabilities based on following the parent source element upwards and mapping to `TerminologyCapabilities`.</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.extension:identifier</t>
-  </si>
-  <si>
-    <t>identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-identifier}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for TerminologyCapabilities.identifier from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>A formal identifier that is used to identify this artifact when it is represented in other formats, or referenced in a specification, model, design or an instance.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `TerminologyCapabilities.identifier`: `http://hl7.org/fhir/StructureDefinition/artifact-identifier`.
-Element `TerminologyCapabilities.identifier` has a context of TerminologyCapabilities based on following the parent source element upwards and mapping to `TerminologyCapabilities`.</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.extension:versionAlgorithm</t>
-  </si>
-  <si>
-    <t>versionAlgorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {artifact-versionAlgorithm}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for TerminologyCapabilities.versionAlgorithm[x] from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Indicates the mechanism used to compare versions to determine which is more current.</t>
-  </si>
-  <si>
-    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `TerminologyCapabilities.versionAlgorithm[x]`: `http://hl7.org/fhir/StructureDefinition/artifact-versionAlgorithm`.
-Element `TerminologyCapabilities.versionAlgorithm[x]` has a context of TerminologyCapabilities based on following the parent source element upwards and mapping to `TerminologyCapabilities`.</t>
-  </si>
-  <si>
     <t>TerminologyCapabilities.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
   </si>
   <si>
     <t>Extensions that cannot be ignored</t>
@@ -515,9 +451,6 @@
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
@@ -886,178 +819,165 @@
     <t>TerminologyCapabilities.software.extension</t>
   </si>
   <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t>Element.extension</t>
   </si>
   <si>
-    <t>TerminologyCapabilities.software.extension:software</t>
-  </si>
-  <si>
-    <t>software</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TerminologyCapabilities.software}
+    <t>TerminologyCapabilities.software.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.software.name</t>
+  </si>
+  <si>
+    <t>A name the software is known by</t>
+  </si>
+  <si>
+    <t>Name the software is known by.</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.software.version</t>
+  </si>
+  <si>
+    <t>Version covered by this statement</t>
+  </si>
+  <si>
+    <t>The version identifier for the software covered by this statement.</t>
+  </si>
+  <si>
+    <t>If possible, a version should be specified, as statements are likely to be different for different versions of software.</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.implementation</t>
+  </si>
+  <si>
+    <t>If this describes a specific instance</t>
+  </si>
+  <si>
+    <t>Identifies a specific implementation instance that is described by the terminology capability statement - i.e. a particular installation, rather than the capabilities of a software program.</t>
+  </si>
+  <si>
+    <t>tcp-2
+tcp-5</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.implementation.id</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.implementation.extension</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.implementation.modifierExtension</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.implementation.description</t>
+  </si>
+  <si>
+    <t>Describes this specific instance</t>
+  </si>
+  <si>
+    <t>Information about the specific installation that this terminology capability statement relates to.</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.implementation.url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">url
 </t>
   </si>
   <si>
-    <t>Cross-version extension for TerminologyCapabilities.software from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `TerminologyCapabilities.software` has is mapped to FHIR R4 element `TerminologyCapabilities.software`, but has no comparisons.</t>
+    <t>Base URL for the implementation</t>
+  </si>
+  <si>
+    <t>An absolute base URL for the implementation.</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.lockedDate</t>
+  </si>
+  <si>
+    <t>Whether lockedDate is supported</t>
+  </si>
+  <si>
+    <t>Whether the server supports lockedDate.</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.codeSystem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1
+</t>
+  </si>
+  <si>
+    <t>A code system supported by the server</t>
+  </si>
+  <si>
+    <t>Identifies a code system that is supported by the server. If there is a no code system URL, then this declares the general assumptions a client can make about support for any CodeSystem resource.</t>
+  </si>
+  <si>
+    <t>The code system - identified by its system URL - may also be declared explicitly as a Code System Resource at /CodeSystem, but it might not be.</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+tcp-1:If there is more than one version, a version code must be defined {version.count() &gt; 1 implies version.all(code.exists())}</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.codeSystem.id</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.codeSystem.extension</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.codeSystem.extension:content</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TerminologyCapabilities.codeSystem.content|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for TerminologyCapabilities.codeSystem.content from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>The extent of the content of the code system (the concepts and codes it defines) are represented in this resource instance.</t>
+  </si>
+  <si>
+    <t>Element `TerminologyCapabilities.codeSystem.content` has a context of TerminologyCapabilities.codeSystem based on following the parent source element upwards and mapping to `TerminologyCapabilities`.</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
 </t>
   </si>
   <si>
-    <t>TerminologyCapabilities.software.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.software.name</t>
-  </si>
-  <si>
-    <t>A name the software is known by</t>
-  </si>
-  <si>
-    <t>Name the software is known by.</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.software.version</t>
-  </si>
-  <si>
-    <t>Version covered by this statement</t>
-  </si>
-  <si>
-    <t>The version identifier for the software covered by this statement.</t>
-  </si>
-  <si>
-    <t>If possible, a version should be specified, as statements are likely to be different for different versions of software.</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.implementation</t>
-  </si>
-  <si>
-    <t>If this describes a specific instance</t>
-  </si>
-  <si>
-    <t>Identifies a specific implementation instance that is described by the terminology capability statement - i.e. a particular installation, rather than the capabilities of a software program.</t>
-  </si>
-  <si>
-    <t>tcp-2
-tcp-5</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.implementation.id</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.implementation.extension</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.implementation.extension:implementation</t>
-  </si>
-  <si>
-    <t>implementation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TerminologyCapabilities.implementation}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for TerminologyCapabilities.implementation from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `TerminologyCapabilities.implementation` has is mapped to FHIR R4 element `TerminologyCapabilities.implementation`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.implementation.modifierExtension</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.implementation.description</t>
-  </si>
-  <si>
-    <t>Describes this specific instance</t>
-  </si>
-  <si>
-    <t>Information about the specific installation that this terminology capability statement relates to.</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.implementation.url</t>
-  </si>
-  <si>
-    <t xml:space="preserve">url
-</t>
-  </si>
-  <si>
-    <t>Base URL for the implementation</t>
-  </si>
-  <si>
-    <t>An absolute base URL for the implementation.</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.lockedDate</t>
-  </si>
-  <si>
-    <t>Whether lockedDate is supported</t>
-  </si>
-  <si>
-    <t>Whether the server supports lockedDate.</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.codeSystem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1
-</t>
-  </si>
-  <si>
-    <t>A code system supported by the server</t>
-  </si>
-  <si>
-    <t>Identifies a code system that is supported by the server. If there is a no code system URL, then this declares the general assumptions a client can make about support for any CodeSystem resource.</t>
-  </si>
-  <si>
-    <t>The code system - identified by its system URL - may also be declared explicitly as a Code System Resource at /CodeSystem, but it might not be.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-tcp-1:If there is more than one version, a version code must be defined {version.count() &gt; 1 implies version.all(code.exists())}</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.codeSystem.id</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.codeSystem.extension</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.codeSystem.extension:codeSystem</t>
-  </si>
-  <si>
-    <t>codeSystem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TerminologyCapabilities.codeSystem}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for TerminologyCapabilities.codeSystem from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `TerminologyCapabilities.codeSystem` has is mapped to FHIR R4 element `TerminologyCapabilities.codeSystem`, but has no comparisons.</t>
-  </si>
-  <si>
     <t>TerminologyCapabilities.codeSystem.modifierExtension</t>
   </si>
   <si>
@@ -1092,12 +1012,6 @@
     <t>TerminologyCapabilities.codeSystem.version.extension</t>
   </si>
   <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>TerminologyCapabilities.codeSystem.version.modifierExtension</t>
   </si>
   <si>
@@ -1141,6 +1055,43 @@
     <t>Language Displays supported.</t>
   </si>
   <si>
+    <t>TerminologyCapabilities.codeSystem.version.language.id</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references)</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.codeSystem.version.language.extension</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.codeSystem.version.language.extension:language</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TerminologyCapabilities.codeSystem.version.language|0.0.1-snapshot-3}
+</t>
+  </si>
+  <si>
+    <t>Cross-version extension for TerminologyCapabilities.codeSystem.version.language from R5 for use in FHIR R4</t>
+  </si>
+  <si>
+    <t>Element `TerminologyCapabilities.codeSystem.version.language` is mapped to FHIR R4 element `TerminologyCapabilities.codeSystem.version.language` as `Equivalent`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.codeSystem.version.language.value</t>
+  </si>
+  <si>
+    <t>Primitive value for code</t>
+  </si>
+  <si>
+    <t>string.value</t>
+  </si>
+  <si>
     <t>TerminologyCapabilities.codeSystem.version.filter</t>
   </si>
   <si>
@@ -1210,152 +1161,121 @@
     <t>TerminologyCapabilities.expansion.extension</t>
   </si>
   <si>
-    <t>TerminologyCapabilities.expansion.extension:expansion</t>
-  </si>
-  <si>
-    <t>expansion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TerminologyCapabilities.expansion}
+    <t>TerminologyCapabilities.expansion.modifierExtension</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.expansion.hierarchical</t>
+  </si>
+  <si>
+    <t>Whether the server can return nested value sets</t>
+  </si>
+  <si>
+    <t>Whether the server can return nested value sets.</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.expansion.paging</t>
+  </si>
+  <si>
+    <t>Whether the server supports paging on expansion</t>
+  </si>
+  <si>
+    <t>Whether the server supports paging on expansion.</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.expansion.incomplete</t>
+  </si>
+  <si>
+    <t>Allow request for incomplete expansions?</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.expansion.parameter</t>
+  </si>
+  <si>
+    <t>Supported expansion parameter</t>
+  </si>
+  <si>
+    <t>Supported expansion parameter.</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.expansion.parameter.id</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.expansion.parameter.extension</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.expansion.parameter.modifierExtension</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.expansion.parameter.name</t>
+  </si>
+  <si>
+    <t>Expansion Parameter name</t>
+  </si>
+  <si>
+    <t>Expansion Parameter name.</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.expansion.parameter.documentation</t>
+  </si>
+  <si>
+    <t>Description of support for parameter</t>
+  </si>
+  <si>
+    <t>Description of support for parameter.</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.expansion.textFilter</t>
+  </si>
+  <si>
+    <t>Documentation about text searching works</t>
+  </si>
+  <si>
+    <t>Documentation about text searching works.</t>
+  </si>
+  <si>
+    <t>This documentation should cover things like case sensitivity,  use of punctuation if not ignored, what wild cards are supported (if any), whether text is starts with or contains, and whether word order matters.</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.codeSearch</t>
+  </si>
+  <si>
+    <t>explicit | all</t>
+  </si>
+  <si>
+    <t>The degree to which the server supports the code search parameter on ValueSet, if it is supported.</t>
+  </si>
+  <si>
+    <t>See notes on the [ValueSet](http://hl7.org/fhir/R4/valueset.html#) resource.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/code-search-support|4.0.1</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.codeSearch.id</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.codeSearch.extension</t>
+  </si>
+  <si>
+    <t>TerminologyCapabilities.codeSearch.extension:codeSearch</t>
+  </si>
+  <si>
+    <t>codeSearch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TerminologyCapabilities.codeSearch|0.0.1-snapshot-3}
 </t>
   </si>
   <si>
-    <t>Cross-version extension for TerminologyCapabilities.expansion from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Information about the [ValueSet/$expand](https://hl7.org/fhir/valueset-operation-expand.html) operation.</t>
-  </si>
-  <si>
-    <t>Element `TerminologyCapabilities.expansion` has is mapped to FHIR R4 element `TerminologyCapabilities.expansion`, but has no comparisons.</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.expansion.modifierExtension</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.expansion.hierarchical</t>
-  </si>
-  <si>
-    <t>Whether the server can return nested value sets</t>
-  </si>
-  <si>
-    <t>Whether the server can return nested value sets.</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.expansion.paging</t>
-  </si>
-  <si>
-    <t>Whether the server supports paging on expansion</t>
-  </si>
-  <si>
-    <t>Whether the server supports paging on expansion.</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.expansion.incomplete</t>
-  </si>
-  <si>
-    <t>Allow request for incomplete expansions?</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.expansion.parameter</t>
-  </si>
-  <si>
-    <t>Supported expansion parameter</t>
-  </si>
-  <si>
-    <t>Supported expansion parameter.</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.expansion.parameter.id</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.expansion.parameter.extension</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.expansion.parameter.modifierExtension</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.expansion.parameter.name</t>
-  </si>
-  <si>
-    <t>Expansion Parameter name</t>
-  </si>
-  <si>
-    <t>Expansion Parameter name.</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.expansion.parameter.documentation</t>
-  </si>
-  <si>
-    <t>Description of support for parameter</t>
-  </si>
-  <si>
-    <t>Description of support for parameter.</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.expansion.textFilter</t>
-  </si>
-  <si>
-    <t>Documentation about text searching works</t>
-  </si>
-  <si>
-    <t>Documentation about text searching works.</t>
-  </si>
-  <si>
-    <t>This documentation should cover things like case sensitivity,  use of punctuation if not ignored, what wild cards are supported (if any), whether text is starts with or contains, and whether word order matters.</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.codeSearch</t>
-  </si>
-  <si>
-    <t>explicit | all</t>
-  </si>
-  <si>
-    <t>The degree to which the server supports the code search parameter on ValueSet, if it is supported.</t>
-  </si>
-  <si>
-    <t>See notes on the [ValueSet](http://hl7.org/fhir/R4/valueset.html#) resource.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/code-search-support|4.0.1</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.codeSearch.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references)</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.codeSearch.extension</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.codeSearch.extension:codeSearch</t>
-  </si>
-  <si>
-    <t>codeSearch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TerminologyCapabilities.codeSearch}
-</t>
-  </si>
-  <si>
     <t>Cross-version extension for TerminologyCapabilities.codeSearch from R5 for use in FHIR R4</t>
   </si>
   <si>
-    <t>Element `TerminologyCapabilities.codeSearch` has is mapped to FHIR R4 element `TerminologyCapabilities.codeSearch`, but has no comparisons.</t>
+    <t>Element `TerminologyCapabilities.codeSearch` is mapped to FHIR R4 element `TerminologyCapabilities.codeSearch` as `SourceIsBroaderThanTarget`, concept domain: `NotRelatedTo`, value domain: `NotRelatedTo`.</t>
   </si>
   <si>
     <t>TerminologyCapabilities.codeSearch.value</t>
   </si>
   <si>
-    <t>Primitive value for code</t>
-  </si>
-  <si>
-    <t>string.value</t>
-  </si>
-  <si>
     <t>TerminologyCapabilities.validateCode</t>
   </si>
   <si>
@@ -1371,25 +1291,6 @@
     <t>TerminologyCapabilities.validateCode.extension</t>
   </si>
   <si>
-    <t>TerminologyCapabilities.validateCode.extension:validateCode</t>
-  </si>
-  <si>
-    <t>validateCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TerminologyCapabilities.validateCode}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for TerminologyCapabilities.validateCode from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Information about the [ValueSet/$validate-code](https://hl7.org/fhir/valueset-operation-validate-code.html) operation.</t>
-  </si>
-  <si>
-    <t>Element `TerminologyCapabilities.validateCode` has is mapped to FHIR R4 element `TerminologyCapabilities.validateCode`, but has no comparisons.</t>
-  </si>
-  <si>
     <t>TerminologyCapabilities.validateCode.modifierExtension</t>
   </si>
   <si>
@@ -1417,25 +1318,6 @@
     <t>TerminologyCapabilities.translation.extension</t>
   </si>
   <si>
-    <t>TerminologyCapabilities.translation.extension:translation</t>
-  </si>
-  <si>
-    <t>translation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TerminologyCapabilities.translation}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for TerminologyCapabilities.translation from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Information about the [ConceptMap/$translate](https://hl7.org/fhir/conceptmap-operation-translate.html) operation.</t>
-  </si>
-  <si>
-    <t>Element `TerminologyCapabilities.translation` has is mapped to FHIR R4 element `TerminologyCapabilities.translation`, but has no comparisons.</t>
-  </si>
-  <si>
     <t>TerminologyCapabilities.translation.modifierExtension</t>
   </si>
   <si>
@@ -1461,22 +1343,6 @@
   </si>
   <si>
     <t>TerminologyCapabilities.closure.extension</t>
-  </si>
-  <si>
-    <t>TerminologyCapabilities.closure.extension:closure</t>
-  </si>
-  <si>
-    <t>closure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org/fhir/5.0/StructureDefinition/extension-TerminologyCapabilities.closure}
-</t>
-  </si>
-  <si>
-    <t>Cross-version extension for TerminologyCapabilities.closure from R5 for use in FHIR R4</t>
-  </si>
-  <si>
-    <t>Element `TerminologyCapabilities.closure` has is mapped to FHIR R4 element `TerminologyCapabilities.closure`, but has no comparisons.</t>
   </si>
   <si>
     <t>TerminologyCapabilities.closure.modifierExtension</t>
@@ -1795,7 +1661,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN103"/>
+  <dimension ref="A1:AN98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1804,9 +1670,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="56.2265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="60.6171875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="56.2265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.76953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="10.21484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
@@ -1814,7 +1680,7 @@
     <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="86.359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="111.6796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2770,7 +2636,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2789,15 +2655,17 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N9" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="N9" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>77</v>
@@ -2834,14 +2702,16 @@
         <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC9" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC9" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD9" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>136</v>
@@ -2859,7 +2729,7 @@
         <v>137</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>77</v>
@@ -2876,43 +2746,43 @@
         <v>138</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C10" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O10" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="M10" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>77</v>
       </c>
@@ -2960,7 +2830,7 @@
         <v>77</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>78</v>
@@ -2975,7 +2845,7 @@
         <v>137</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>77</v>
@@ -2989,14 +2859,12 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C11" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
         <v>77</v>
       </c>
@@ -3005,7 +2873,7 @@
         <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>77</v>
@@ -3014,21 +2882,23 @@
         <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="L11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="N11" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="O11" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="M11" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>77</v>
       </c>
@@ -3076,28 +2946,28 @@
         <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>77</v>
+        <v>148</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>77</v>
+        <v>149</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>77</v>
@@ -3108,11 +2978,9 @@
         <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>151</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
         <v>77</v>
       </c>
@@ -3130,19 +2998,19 @@
         <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L12" t="s" s="2">
+      <c r="M12" t="s" s="2">
         <v>153</v>
       </c>
-      <c r="M12" t="s" s="2">
+      <c r="N12" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>155</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3192,28 +3060,28 @@
         <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>77</v>
@@ -3221,33 +3089,33 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J13" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J13" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="K13" t="s" s="2">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>158</v>
@@ -3308,22 +3176,22 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI13" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="AG13" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AJ13" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>77</v>
@@ -3363,7 +3231,7 @@
         <v>87</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>100</v>
+        <v>151</v>
       </c>
       <c r="L14" t="s" s="2">
         <v>164</v>
@@ -3374,9 +3242,7 @@
       <c r="N14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="O14" t="s" s="2">
-        <v>167</v>
-      </c>
+      <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>77</v>
       </c>
@@ -3442,10 +3308,10 @@
         <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>169</v>
+        <v>77</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>77</v>
@@ -3453,10 +3319,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3464,7 +3330,7 @@
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>86</v>
@@ -3473,22 +3339,22 @@
         <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="N15" t="s" s="2">
         <v>171</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>174</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3514,13 +3380,13 @@
         <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>77</v>
+        <v>173</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>77</v>
+        <v>174</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>77</v>
@@ -3538,10 +3404,10 @@
         <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>86</v>
@@ -3593,19 +3459,19 @@
         <v>87</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>77</v>
@@ -3663,7 +3529,7 @@
         <v>86</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>182</v>
+        <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>98</v>
@@ -3672,10 +3538,10 @@
         <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>77</v>
@@ -3683,18 +3549,18 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>77</v>
+        <v>186</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>86</v>
@@ -3709,16 +3575,16 @@
         <v>87</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3768,10 +3634,10 @@
         <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>86</v>
@@ -3786,10 +3652,10 @@
         <v>77</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>77</v>
+        <v>192</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>77</v>
@@ -3797,10 +3663,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3808,7 +3674,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>86</v>
@@ -3817,24 +3683,26 @@
         <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>106</v>
+        <v>151</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>77</v>
       </c>
@@ -3858,34 +3726,34 @@
         <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="Y18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="Z18" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>188</v>
-      </c>
       <c r="AG18" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>86</v>
@@ -3900,10 +3768,10 @@
         <v>77</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>77</v>
@@ -3911,10 +3779,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3925,7 +3793,7 @@
         <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>77</v>
@@ -3937,20 +3805,18 @@
         <v>87</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>77</v>
       </c>
@@ -3998,13 +3864,13 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>77</v>
@@ -4016,10 +3882,10 @@
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>204</v>
+        <v>77</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>77</v>
@@ -4027,18 +3893,18 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>206</v>
+        <v>77</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>86</v>
@@ -4050,7 +3916,7 @@
         <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>207</v>
@@ -4112,10 +3978,10 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>86</v>
@@ -4133,7 +3999,7 @@
         <v>211</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>212</v>
+        <v>77</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>77</v>
@@ -4141,10 +4007,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4155,7 +4021,7 @@
         <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>77</v>
@@ -4167,7 +4033,7 @@
         <v>87</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>171</v>
+        <v>213</v>
       </c>
       <c r="L21" t="s" s="2">
         <v>214</v>
@@ -4228,13 +4094,13 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>77</v>
@@ -4249,7 +4115,7 @@
         <v>218</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>77</v>
@@ -4257,10 +4123,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4283,16 +4149,16 @@
         <v>87</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4318,13 +4184,13 @@
         <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>77</v>
+        <v>226</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>77</v>
@@ -4342,7 +4208,7 @@
         <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
@@ -4360,7 +4226,7 @@
         <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -4371,10 +4237,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4397,16 +4263,16 @@
         <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4456,7 +4322,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
@@ -4474,32 +4340,32 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>77</v>
+        <v>233</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>77</v>
+        <v>234</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>77</v>
@@ -4511,19 +4377,17 @@
         <v>87</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>233</v>
+        <v>207</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>77</v>
@@ -4572,13 +4436,13 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>77</v>
@@ -4590,21 +4454,21 @@
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>77</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4612,10 +4476,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>77</v>
@@ -4627,18 +4491,18 @@
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>240</v>
+        <v>106</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="N25" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="O25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
       </c>
@@ -4662,7 +4526,7 @@
         <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>244</v>
+        <v>172</v>
       </c>
       <c r="Y25" t="s" s="2">
         <v>245</v>
@@ -4686,16 +4550,16 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>77</v>
+        <v>247</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>98</v>
@@ -4704,7 +4568,7 @@
         <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>247</v>
+        <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -4738,20 +4602,18 @@
         <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N26" t="s" s="2">
         <v>251</v>
       </c>
+      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>77</v>
@@ -4809,7 +4671,7 @@
         <v>86</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>77</v>
+        <v>252</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>98</v>
@@ -4818,25 +4680,25 @@
         <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>252</v>
+        <v>77</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>253</v>
+        <v>77</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>254</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>256</v>
+        <v>77</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
@@ -4852,21 +4714,19 @@
         <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>227</v>
+        <v>151</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>259</v>
-      </c>
+      <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
         <v>77</v>
       </c>
@@ -4914,7 +4774,7 @@
         <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4926,38 +4786,38 @@
         <v>77</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>260</v>
+        <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>254</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
@@ -4966,21 +4826,21 @@
         <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>262</v>
+        <v>133</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>77</v>
       </c>
@@ -5004,13 +4864,13 @@
         <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>265</v>
+        <v>77</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>266</v>
+        <v>77</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>77</v>
@@ -5028,22 +4888,22 @@
         <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>267</v>
+        <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
@@ -5057,42 +4917,46 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>269</v>
+        <v>132</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O29" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P29" t="s" s="2">
         <v>77</v>
       </c>
@@ -5140,22 +5004,22 @@
         <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>272</v>
+        <v>77</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
@@ -5169,10 +5033,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5180,7 +5044,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>86</v>
@@ -5192,16 +5056,16 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5252,10 +5116,10 @@
         <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>86</v>
@@ -5264,10 +5128,10 @@
         <v>77</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
@@ -5281,10 +5145,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5295,7 +5159,7 @@
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
@@ -5304,18 +5168,20 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>132</v>
+        <v>269</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>270</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>271</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -5352,29 +5218,31 @@
         <v>77</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC31" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>77</v>
@@ -5391,14 +5259,12 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="C32" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5416,20 +5282,18 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>283</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>77</v>
@@ -5478,19 +5342,19 @@
         <v>77</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>77</v>
@@ -5507,46 +5371,42 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>286</v>
+        <v>77</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>77</v>
       </c>
@@ -5594,22 +5454,22 @@
         <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
@@ -5623,21 +5483,21 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>77</v>
@@ -5646,18 +5506,20 @@
         <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>291</v>
+        <v>133</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>77</v>
@@ -5706,22 +5568,22 @@
         <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>77</v>
@@ -5735,44 +5597,46 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="O35" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>77</v>
       </c>
@@ -5820,22 +5684,22 @@
         <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>77</v>
@@ -5849,10 +5713,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5860,7 +5724,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>86</v>
@@ -5875,13 +5739,13 @@
         <v>87</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>269</v>
+        <v>151</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -5932,16 +5796,16 @@
         <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>300</v>
+        <v>77</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>98</v>
@@ -5961,10 +5825,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>301</v>
+        <v>282</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5984,16 +5848,16 @@
         <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>171</v>
+        <v>283</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6044,7 +5908,7 @@
         <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6056,10 +5920,10 @@
         <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -6073,10 +5937,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6087,7 +5951,7 @@
         <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>77</v>
@@ -6096,16 +5960,16 @@
         <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>132</v>
+        <v>287</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>133</v>
+        <v>288</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6144,29 +6008,31 @@
         <v>77</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC38" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>77</v>
@@ -6183,23 +6049,21 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="C39" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>77</v>
+        <v>290</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>77</v>
@@ -6211,16 +6075,16 @@
         <v>77</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>305</v>
+        <v>249</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6270,7 +6134,7 @@
         <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6279,10 +6143,10 @@
         <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>284</v>
+        <v>77</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>137</v>
+        <v>294</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>77</v>
@@ -6299,46 +6163,42 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>286</v>
+        <v>77</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>77</v>
       </c>
@@ -6386,22 +6246,22 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6415,10 +6275,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6429,7 +6289,7 @@
         <v>86</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>77</v>
@@ -6438,16 +6298,16 @@
         <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6486,31 +6346,29 @@
         <v>77</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="AC41" s="2"/>
       <c r="AD41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>77</v>
+        <v>300</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>77</v>
@@ -6527,18 +6385,20 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="D42" t="s" s="2">
         <v>77</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>86</v>
@@ -6550,18 +6410,20 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>77</v>
@@ -6610,19 +6472,19 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>312</v>
+        <v>259</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>77</v>
+        <v>307</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>77</v>
@@ -6639,42 +6501,46 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>87</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>198</v>
+        <v>132</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>317</v>
+        <v>262</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
       </c>
@@ -6722,22 +6588,22 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>316</v>
+        <v>264</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>77</v>
@@ -6751,21 +6617,21 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>320</v>
+        <v>77</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>77</v>
@@ -6777,17 +6643,15 @@
         <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>269</v>
+        <v>310</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -6836,19 +6700,19 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>324</v>
+        <v>98</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>77</v>
@@ -6865,10 +6729,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6879,7 +6743,7 @@
         <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
@@ -6891,15 +6755,17 @@
         <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>171</v>
+        <v>249</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>274</v>
+        <v>314</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6948,22 +6814,22 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>276</v>
+        <v>313</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>77</v>
@@ -6977,10 +6843,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6991,7 +6857,7 @@
         <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>77</v>
@@ -7003,13 +6869,13 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>132</v>
+        <v>254</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>133</v>
+        <v>255</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7048,32 +6914,34 @@
         <v>77</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC46" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -7087,16 +6955,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="C47" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7115,16 +6981,16 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>329</v>
+        <v>132</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>330</v>
+        <v>133</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>322</v>
+        <v>258</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>331</v>
+        <v>135</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7174,7 +7040,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7183,13 +7049,13 @@
         <v>79</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>284</v>
+        <v>77</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>137</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7203,14 +7069,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>286</v>
+        <v>261</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7229,19 +7095,19 @@
         <v>87</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>287</v>
+        <v>262</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>288</v>
+        <v>263</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7290,7 +7156,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7319,10 +7185,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7342,16 +7208,16 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>334</v>
+        <v>151</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7402,7 +7268,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7411,7 +7277,7 @@
         <v>86</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>77</v>
+        <v>323</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>98</v>
@@ -7431,10 +7297,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7445,7 +7311,7 @@
         <v>78</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>77</v>
@@ -7454,20 +7320,18 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>269</v>
+        <v>178</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>340</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>77</v>
@@ -7516,13 +7380,13 @@
         <v>77</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>77</v>
@@ -7545,10 +7409,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7571,13 +7435,13 @@
         <v>77</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>274</v>
+        <v>328</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>275</v>
+        <v>329</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7628,7 +7492,7 @@
         <v>77</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>276</v>
+        <v>327</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7640,10 +7504,10 @@
         <v>77</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
@@ -7657,14 +7521,14 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7683,17 +7547,15 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>77</v>
@@ -7742,7 +7604,7 @@
         <v>77</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>278</v>
+        <v>330</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7754,10 +7616,10 @@
         <v>77</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>77</v>
@@ -7771,46 +7633,42 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>286</v>
+        <v>77</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>287</v>
+        <v>334</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>77</v>
       </c>
@@ -7858,22 +7716,22 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
@@ -7887,10 +7745,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7901,7 +7759,7 @@
         <v>78</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>77</v>
@@ -7910,16 +7768,16 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>347</v>
+        <v>297</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>348</v>
+        <v>298</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7958,31 +7816,29 @@
         <v>77</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="AC54" s="2"/>
       <c r="AD54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>77</v>
+        <v>300</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>346</v>
+        <v>259</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>349</v>
+        <v>77</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>77</v>
@@ -7999,12 +7855,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>336</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
       </c>
@@ -8013,7 +7871,7 @@
         <v>78</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>77</v>
@@ -8022,18 +7880,20 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>198</v>
+        <v>339</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>332</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>341</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -8082,19 +7942,19 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>350</v>
+        <v>259</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>77</v>
+        <v>307</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>77</v>
@@ -8111,10 +7971,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8137,13 +7997,13 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>198</v>
+        <v>151</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8194,7 +8054,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8206,7 +8066,7 @@
         <v>77</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>77</v>
@@ -8223,10 +8083,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8249,13 +8109,13 @@
         <v>77</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>106</v>
+        <v>249</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8306,7 +8166,7 @@
         <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8335,10 +8195,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8349,7 +8209,7 @@
         <v>78</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>77</v>
@@ -8361,13 +8221,13 @@
         <v>77</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>269</v>
+        <v>151</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>360</v>
+        <v>254</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>361</v>
+        <v>255</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8418,22 +8278,22 @@
         <v>77</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>359</v>
+        <v>256</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8447,21 +8307,21 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>362</v>
+        <v>349</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>77</v>
@@ -8473,15 +8333,17 @@
         <v>77</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>274</v>
+        <v>133</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N59" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>77</v>
@@ -8530,19 +8392,19 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>84</v>
@@ -8559,14 +8421,14 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>157</v>
+        <v>261</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8579,24 +8441,26 @@
         <v>77</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>343</v>
+        <v>262</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>344</v>
+        <v>263</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O60" s="2"/>
+        <v>135</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>77</v>
       </c>
@@ -8644,7 +8508,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8659,7 +8523,7 @@
         <v>137</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -8673,46 +8537,42 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>286</v>
+        <v>77</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>287</v>
+        <v>352</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8760,22 +8620,22 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>289</v>
+        <v>351</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
@@ -8789,10 +8649,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8803,7 +8663,7 @@
         <v>86</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>77</v>
@@ -8818,10 +8678,10 @@
         <v>106</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8872,13 +8732,13 @@
         <v>77</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>77</v>
@@ -8901,10 +8761,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8912,7 +8772,7 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>79</v>
@@ -8930,10 +8790,10 @@
         <v>106</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8984,10 +8844,10 @@
         <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>79</v>
@@ -9013,10 +8873,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9027,7 +8887,7 @@
         <v>78</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>77</v>
@@ -9039,13 +8899,13 @@
         <v>77</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9096,13 +8956,13 @@
         <v>77</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>77</v>
@@ -9125,10 +8985,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9151,13 +9011,13 @@
         <v>77</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>198</v>
+        <v>249</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>376</v>
+        <v>365</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9208,7 +9068,7 @@
         <v>77</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9237,10 +9097,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9263,13 +9123,13 @@
         <v>77</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>269</v>
+        <v>151</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>378</v>
+        <v>254</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>379</v>
+        <v>255</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9320,7 +9180,7 @@
         <v>77</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>377</v>
+        <v>256</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9332,10 +9192,10 @@
         <v>77</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
@@ -9349,21 +9209,21 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>380</v>
+        <v>367</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>77</v>
@@ -9375,15 +9235,17 @@
         <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>274</v>
+        <v>133</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>77</v>
@@ -9432,19 +9294,19 @@
         <v>77</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>84</v>
@@ -9461,14 +9323,14 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>381</v>
+        <v>368</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
@@ -9481,22 +9343,26 @@
         <v>77</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>132</v>
+        <v>262</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>77</v>
       </c>
@@ -9532,17 +9398,19 @@
         <v>77</v>
       </c>
       <c r="AB68" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC68" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -9557,7 +9425,7 @@
         <v>137</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
@@ -9571,14 +9439,12 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="C69" t="s" s="2">
-        <v>383</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
         <v>77</v>
       </c>
@@ -9599,17 +9465,15 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>384</v>
+        <v>178</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>387</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>77</v>
@@ -9658,19 +9522,19 @@
         <v>77</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>278</v>
+        <v>369</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>284</v>
+        <v>77</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>77</v>
@@ -9687,46 +9551,42 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>286</v>
+        <v>77</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>287</v>
+        <v>373</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O70" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
         <v>77</v>
       </c>
@@ -9774,22 +9634,22 @@
         <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>289</v>
+        <v>372</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
@@ -9803,10 +9663,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9829,13 +9689,13 @@
         <v>77</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9886,7 +9746,7 @@
         <v>77</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -9915,10 +9775,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9929,7 +9789,7 @@
         <v>78</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>77</v>
@@ -9941,13 +9801,13 @@
         <v>77</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>198</v>
+        <v>249</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9998,13 +9858,13 @@
         <v>77</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>77</v>
@@ -10027,10 +9887,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10053,13 +9913,13 @@
         <v>77</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>198</v>
+        <v>151</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>396</v>
+        <v>254</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>396</v>
+        <v>255</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10110,7 +9970,7 @@
         <v>77</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>395</v>
+        <v>256</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10122,10 +9982,10 @@
         <v>77</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
@@ -10139,14 +9999,14 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10165,15 +10025,17 @@
         <v>77</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>269</v>
+        <v>132</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>398</v>
+        <v>133</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>77</v>
@@ -10222,7 +10084,7 @@
         <v>77</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>397</v>
+        <v>259</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -10234,10 +10096,10 @@
         <v>77</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>77</v>
@@ -10251,42 +10113,46 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P75" t="s" s="2">
         <v>77</v>
       </c>
@@ -10334,22 +10200,22 @@
         <v>77</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>77</v>
@@ -10363,21 +10229,21 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>401</v>
+        <v>383</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>157</v>
+        <v>77</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>77</v>
@@ -10389,17 +10255,15 @@
         <v>77</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>77</v>
@@ -10448,22 +10312,22 @@
         <v>77</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>278</v>
+        <v>383</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>77</v>
@@ -10477,46 +10341,42 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>286</v>
+        <v>77</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>287</v>
+        <v>387</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>77</v>
       </c>
@@ -10564,22 +10424,22 @@
         <v>77</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>289</v>
+        <v>386</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>77</v>
@@ -10593,10 +10453,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10604,7 +10464,7 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>86</v>
@@ -10619,15 +10479,17 @@
         <v>77</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>106</v>
+        <v>207</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>391</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>392</v>
+      </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>77</v>
@@ -10676,10 +10538,10 @@
         <v>77</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>86</v>
@@ -10705,10 +10567,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10731,15 +10593,17 @@
         <v>77</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>171</v>
+        <v>106</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>407</v>
+        <v>394</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>396</v>
+      </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>77</v>
@@ -10764,13 +10628,13 @@
         <v>77</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>77</v>
+        <v>172</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>77</v>
+        <v>395</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>77</v>
+        <v>397</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>77</v>
@@ -10788,7 +10652,7 @@
         <v>77</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>406</v>
+        <v>393</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -10817,10 +10681,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10843,17 +10707,15 @@
         <v>77</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>227</v>
+        <v>151</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>410</v>
+        <v>334</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>412</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>77</v>
@@ -10902,7 +10764,7 @@
         <v>77</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>409</v>
+        <v>256</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -10914,7 +10776,7 @@
         <v>77</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>77</v>
@@ -10931,10 +10793,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10945,7 +10807,7 @@
         <v>78</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>77</v>
@@ -10957,17 +10819,15 @@
         <v>77</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>414</v>
+        <v>297</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>416</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>77</v>
@@ -10992,43 +10852,41 @@
         <v>77</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>415</v>
+        <v>77</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>417</v>
+        <v>77</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AB81" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="AC81" s="2"/>
       <c r="AD81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>77</v>
+        <v>300</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>413</v>
+        <v>259</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>77</v>
@@ -11045,12 +10903,14 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="C82" s="2"/>
+        <v>399</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="D82" t="s" s="2">
         <v>77</v>
       </c>
@@ -11071,15 +10931,17 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>171</v>
+        <v>402</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>419</v>
+        <v>403</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>395</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>77</v>
@@ -11128,19 +10990,19 @@
         <v>77</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>77</v>
+        <v>307</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>77</v>
@@ -11157,10 +11019,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11171,7 +11033,7 @@
         <v>78</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>77</v>
@@ -11183,13 +11045,13 @@
         <v>77</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>132</v>
+        <v>343</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>133</v>
+        <v>343</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11228,29 +11090,31 @@
         <v>77</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC83" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>278</v>
+        <v>344</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>77</v>
@@ -11267,14 +11131,12 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>422</v>
+        <v>406</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="C84" t="s" s="2">
-        <v>423</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
         <v>77</v>
       </c>
@@ -11295,17 +11157,15 @@
         <v>77</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>424</v>
+        <v>249</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>425</v>
+        <v>407</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>426</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="N84" s="2"/>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>77</v>
@@ -11354,19 +11214,19 @@
         <v>77</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>278</v>
+        <v>406</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>284</v>
+        <v>77</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>77</v>
@@ -11383,10 +11243,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11409,13 +11269,13 @@
         <v>77</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>428</v>
+        <v>254</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>428</v>
+        <v>255</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -11466,7 +11326,7 @@
         <v>77</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>429</v>
+        <v>256</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>78</v>
@@ -11481,7 +11341,7 @@
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>77</v>
@@ -11495,21 +11355,21 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>430</v>
+        <v>410</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>77</v>
@@ -11521,15 +11381,17 @@
         <v>77</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>269</v>
+        <v>132</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>431</v>
+        <v>133</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="N86" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O86" s="2"/>
       <c r="P86" t="s" s="2">
         <v>77</v>
@@ -11578,22 +11440,22 @@
         <v>77</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>430</v>
+        <v>259</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH86" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI86" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL86" t="s" s="2">
         <v>77</v>
@@ -11607,42 +11469,46 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>433</v>
+        <v>411</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>433</v>
+        <v>411</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>171</v>
+        <v>132</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N87" s="2"/>
-      <c r="O87" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P87" t="s" s="2">
         <v>77</v>
       </c>
@@ -11690,22 +11556,22 @@
         <v>77</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>77</v>
@@ -11719,10 +11585,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>434</v>
+        <v>412</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>434</v>
+        <v>412</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -11730,10 +11596,10 @@
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>77</v>
@@ -11745,13 +11611,13 @@
         <v>77</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>132</v>
+        <v>413</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>133</v>
+        <v>414</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -11790,29 +11656,31 @@
         <v>77</v>
       </c>
       <c r="AB88" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC88" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>278</v>
+        <v>412</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>77</v>
@@ -11829,14 +11697,12 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>435</v>
+        <v>415</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="C89" t="s" s="2">
-        <v>436</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
         <v>77</v>
       </c>
@@ -11857,17 +11723,15 @@
         <v>77</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>437</v>
+        <v>249</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>438</v>
+        <v>416</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>417</v>
+      </c>
+      <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>77</v>
@@ -11916,19 +11780,19 @@
         <v>77</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>278</v>
+        <v>415</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>284</v>
+        <v>77</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>77</v>
@@ -11945,46 +11809,42 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>441</v>
+        <v>418</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>441</v>
+        <v>418</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>286</v>
+        <v>77</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O90" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
       <c r="P90" t="s" s="2">
         <v>77</v>
       </c>
@@ -12032,22 +11892,22 @@
         <v>77</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH90" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>77</v>
@@ -12061,21 +11921,21 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>77</v>
+        <v>131</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H91" t="s" s="2">
         <v>77</v>
@@ -12087,15 +11947,17 @@
         <v>77</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>198</v>
+        <v>132</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>443</v>
+        <v>133</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="N91" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>135</v>
+      </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>77</v>
@@ -12144,22 +12006,22 @@
         <v>77</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>442</v>
+        <v>259</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH91" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI91" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>77</v>
@@ -12173,42 +12035,46 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>445</v>
+        <v>420</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>445</v>
+        <v>420</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>269</v>
+        <v>132</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>446</v>
+        <v>262</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P92" t="s" s="2">
         <v>77</v>
       </c>
@@ -12256,22 +12122,22 @@
         <v>77</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>445</v>
+        <v>264</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL92" t="s" s="2">
         <v>77</v>
@@ -12285,10 +12151,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>448</v>
+        <v>421</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>448</v>
+        <v>421</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -12296,7 +12162,7 @@
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>86</v>
@@ -12311,13 +12177,13 @@
         <v>77</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>274</v>
+        <v>422</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>275</v>
+        <v>423</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -12368,10 +12234,10 @@
         <v>77</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>276</v>
+        <v>421</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>86</v>
@@ -12380,10 +12246,10 @@
         <v>77</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>77</v>
@@ -12397,10 +12263,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>449</v>
+        <v>424</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>449</v>
+        <v>424</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12411,7 +12277,7 @@
         <v>78</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>77</v>
@@ -12423,13 +12289,13 @@
         <v>77</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>131</v>
+        <v>249</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>132</v>
+        <v>425</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>133</v>
+        <v>426</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -12468,29 +12334,31 @@
         <v>77</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC94" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AD94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>278</v>
+        <v>424</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>77</v>
@@ -12507,14 +12375,12 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="C95" t="s" s="2">
-        <v>451</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
         <v>77</v>
       </c>
@@ -12535,17 +12401,15 @@
         <v>77</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>452</v>
+        <v>151</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>453</v>
+        <v>254</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>455</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>77</v>
@@ -12594,22 +12458,22 @@
         <v>77</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>284</v>
+        <v>77</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="AL95" t="s" s="2">
         <v>77</v>
@@ -12623,14 +12487,14 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>456</v>
+        <v>428</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>456</v>
+        <v>428</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>286</v>
+        <v>131</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
@@ -12643,26 +12507,24 @@
         <v>77</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>287</v>
+        <v>133</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O96" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>77</v>
       </c>
@@ -12710,7 +12572,7 @@
         <v>77</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>78</v>
@@ -12725,7 +12587,7 @@
         <v>137</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>77</v>
@@ -12739,42 +12601,46 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>457</v>
+        <v>429</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>457</v>
+        <v>429</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>77</v>
+        <v>261</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>198</v>
+        <v>132</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>458</v>
+        <v>262</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="N97" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="O97" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="P97" t="s" s="2">
         <v>77</v>
       </c>
@@ -12822,22 +12688,22 @@
         <v>77</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>457</v>
+        <v>264</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AH97" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AI97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>77</v>
@@ -12851,10 +12717,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -12877,13 +12743,13 @@
         <v>77</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>269</v>
+        <v>178</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>461</v>
+        <v>431</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>462</v>
+        <v>432</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -12934,7 +12800,7 @@
         <v>77</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>460</v>
+        <v>430</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>78</v>
@@ -12958,572 +12824,6 @@
         <v>77</v>
       </c>
       <c r="AN98" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="B99" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E99" s="2"/>
-      <c r="F99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G99" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K99" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
-      <c r="P99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q99" s="2"/>
-      <c r="R99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF99" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="AG99" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH99" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK99" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AL99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN99" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="B100" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E100" s="2"/>
-      <c r="F100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M100" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N100" s="2"/>
-      <c r="O100" s="2"/>
-      <c r="P100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q100" s="2"/>
-      <c r="R100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AC100" s="2"/>
-      <c r="AD100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM100" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN100" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="C101" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="D101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E101" s="2"/>
-      <c r="F101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>467</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>468</v>
-      </c>
-      <c r="M101" t="s" s="2">
-        <v>462</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="O101" s="2"/>
-      <c r="P101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q101" s="2"/>
-      <c r="R101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM101" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN101" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="D102" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="E102" s="2"/>
-      <c r="F102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="N102" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="O102" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="P102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q102" s="2"/>
-      <c r="R102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AL102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM102" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN102" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="B103" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="C103" s="2"/>
-      <c r="D103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="E103" s="2"/>
-      <c r="F103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="N103" s="2"/>
-      <c r="O103" s="2"/>
-      <c r="P103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Q103" s="2"/>
-      <c r="R103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM103" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN103" t="s" s="2">
         <v>77</v>
       </c>
     </row>
